--- a/Clustering/남하림/data/서울시_학교정보.xlsx
+++ b/Clustering/남하림/data/서울시_학교정보.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\Desktop\학교군집화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82105\Desktop\학교군집화\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DDE288-D036-4BD2-AF9E-D4EC075497A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0447F084-A44C-4ED1-BA1C-02CEC75C4DEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="699" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1754,9 +1754,6 @@
     <t>http://www.songpa-th.hs.kr</t>
   </si>
   <si>
-    <t>용산공업고등학교</t>
-  </si>
-  <si>
     <t>http://www.yongsan-th.hs.kr</t>
   </si>
   <si>
@@ -1769,9 +1766,6 @@
     <t>휘경공업고등학교</t>
   </si>
   <si>
-    <t>경기여자상업고등학교</t>
-  </si>
-  <si>
     <t>http://www.gggc.hs.kr</t>
   </si>
   <si>
@@ -1781,15 +1775,9 @@
     <t>http://www.kbb.hs.kr</t>
   </si>
   <si>
-    <t>고명경영고등학교</t>
-  </si>
-  <si>
     <t>http://www.komyung.hs.kr</t>
   </si>
   <si>
-    <t>광신정보산업고등학교</t>
-  </si>
-  <si>
     <t>http://kwangshin-i.hs.kr</t>
   </si>
   <si>
@@ -1799,9 +1787,6 @@
     <t>http://www.kwangwoon.hs.kr/</t>
   </si>
   <si>
-    <t>단국공업고등학교</t>
-  </si>
-  <si>
     <t>http://www.dankook.hs.kr</t>
   </si>
   <si>
@@ -1844,15 +1829,9 @@
     <t>http://donggoo.hs.kr</t>
   </si>
   <si>
-    <t>동명여자정보산업고등학교</t>
-  </si>
-  <si>
     <t>http://www.dmgii.hs.kr</t>
   </si>
   <si>
-    <t>동산정보산업고등학교</t>
-  </si>
-  <si>
     <t>http://www.seouldongsan.hs.kr</t>
   </si>
   <si>
@@ -1934,9 +1913,6 @@
     <t>서울컨벤션고등학교</t>
   </si>
   <si>
-    <t>서일국제경영고등학교</t>
-  </si>
-  <si>
     <t>http://www.seo-il.hs.kr</t>
   </si>
   <si>
@@ -1979,9 +1955,6 @@
     <t>http://www.sudo.hs.kr</t>
   </si>
   <si>
-    <t>신정여자상업고등학교</t>
-  </si>
-  <si>
     <t>http://www.shinjung.hs.kr</t>
   </si>
   <si>
@@ -2040,9 +2013,6 @@
   </si>
   <si>
     <t>서울특별시 중랑구 망우로73길 56 (망우동,이화여대병설미디어고등학교  영란여중)</t>
-  </si>
-  <si>
-    <t>인덕공업고등학교</t>
   </si>
   <si>
     <t>http://www.induk.hs.kr</t>
@@ -4004,6 +3974,46 @@
   </si>
   <si>
     <t>학급당평균학생수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단국대학교부속소프트웨어고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고명외식고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울신정고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덕과학기술고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서일문화예술고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>광신방송예술고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산철도고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울의료보건고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울동산고등학교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동명생활경영고등학교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5790,45 +5800,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="30" borderId="5" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="30" borderId="52" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="28" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="7" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="30" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="63" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5839,6 +5810,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="51" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="52" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="6" borderId="29" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5855,6 +5835,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="52" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="30" borderId="5" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="30" borderId="52" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="28" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="28" xfId="63" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="7" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="30" borderId="28" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -6340,11 +6350,11 @@
   <dimension ref="A1:O323"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="91" zoomScaleNormal="40" zoomScaleSheetLayoutView="91" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D155" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F14" sqref="F14"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="P19" sqref="P19"/>
+      <selection pane="bottomRight" activeCell="J166" sqref="J166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -6371,40 +6381,40 @@
         <v>39</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>1313</v>
+        <v>1303</v>
       </c>
       <c r="C1" t="s">
-        <v>1314</v>
+        <v>1304</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="K1" s="87" t="s">
-        <v>1315</v>
+        <v>1305</v>
       </c>
       <c r="L1" t="s">
-        <v>1316</v>
+        <v>1306</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>1318</v>
+        <v>1308</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>1317</v>
+        <v>1307</v>
       </c>
       <c r="O1" s="15"/>
     </row>
     <row r="2" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="60" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B2" s="83" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E2" s="83" t="s">
         <v>48</v>
@@ -6419,10 +6429,10 @@
         <v>67</v>
       </c>
       <c r="I2" s="83" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="J2" s="48" t="s">
-        <v>1102</v>
+        <v>1092</v>
       </c>
       <c r="K2" s="52">
         <v>15</v>
@@ -6439,13 +6449,13 @@
     </row>
     <row r="3" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B3" s="84" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D3" s="44" t="s">
         <v>70</v>
@@ -6463,10 +6473,10 @@
         <v>67</v>
       </c>
       <c r="I3" s="84" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="K3" s="50">
         <v>18</v>
@@ -6483,7 +6493,7 @@
     </row>
     <row r="4" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>1</v>
@@ -6492,7 +6502,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>1103</v>
+        <v>1093</v>
       </c>
       <c r="E4" s="84" t="s">
         <v>48</v>
@@ -6507,10 +6517,10 @@
         <v>67</v>
       </c>
       <c r="I4" s="84" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="J4" s="44" t="s">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="K4" s="50">
         <v>27</v>
@@ -6528,7 +6538,7 @@
     </row>
     <row r="5" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>13</v>
@@ -6552,7 +6562,7 @@
         <v>67</v>
       </c>
       <c r="I5" s="84" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>73</v>
@@ -6572,7 +6582,7 @@
     </row>
     <row r="6" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B6" s="84" t="s">
         <v>23</v>
@@ -6596,10 +6606,10 @@
         <v>67</v>
       </c>
       <c r="I6" s="84" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="J6" s="44" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="K6" s="50">
         <v>27</v>
@@ -6617,7 +6627,7 @@
     </row>
     <row r="7" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B7" s="84" t="s">
         <v>11</v>
@@ -6632,7 +6642,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G7" s="84" t="s">
         <v>50</v>
@@ -6641,7 +6651,7 @@
         <v>67</v>
       </c>
       <c r="I7" s="84" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="J7" s="44" t="s">
         <v>542</v>
@@ -6661,7 +6671,7 @@
     </row>
     <row r="8" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B8" s="84" t="s">
         <v>12</v>
@@ -6685,10 +6695,10 @@
         <v>67</v>
       </c>
       <c r="I8" s="84" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>1105</v>
+        <v>1095</v>
       </c>
       <c r="K8" s="50">
         <v>27</v>
@@ -6705,7 +6715,7 @@
     </row>
     <row r="9" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B9" s="84" t="s">
         <v>9</v>
@@ -6729,10 +6739,10 @@
         <v>67</v>
       </c>
       <c r="I9" s="84" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>1106</v>
+        <v>1096</v>
       </c>
       <c r="K9" s="50">
         <v>30</v>
@@ -6749,7 +6759,7 @@
     </row>
     <row r="10" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B10" s="84" t="s">
         <v>9</v>
@@ -6773,10 +6783,10 @@
         <v>67</v>
       </c>
       <c r="I10" s="84" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="J10" s="44" t="s">
-        <v>1210</v>
+        <v>1200</v>
       </c>
       <c r="K10" s="50">
         <v>45</v>
@@ -6793,7 +6803,7 @@
     </row>
     <row r="11" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B11" s="84" t="s">
         <v>17</v>
@@ -6808,7 +6818,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G11" s="84" t="s">
         <v>50</v>
@@ -6817,10 +6827,10 @@
         <v>67</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="J11" s="44" t="s">
-        <v>1189</v>
+        <v>1179</v>
       </c>
       <c r="K11" s="50">
         <v>54</v>
@@ -6837,7 +6847,7 @@
     </row>
     <row r="12" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B12" s="84" t="s">
         <v>14</v>
@@ -6852,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G12" s="84" t="s">
         <v>50</v>
@@ -6861,10 +6871,10 @@
         <v>67</v>
       </c>
       <c r="I12" s="84" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="J12" s="44" t="s">
-        <v>1190</v>
+        <v>1180</v>
       </c>
       <c r="K12" s="50">
         <v>20</v>
@@ -6881,7 +6891,7 @@
     </row>
     <row r="13" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B13" s="84" t="s">
         <v>9</v>
@@ -6905,10 +6915,10 @@
         <v>67</v>
       </c>
       <c r="I13" s="84" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="J13" s="44" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="K13" s="50">
         <v>43</v>
@@ -6925,7 +6935,7 @@
     </row>
     <row r="14" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B14" s="84" t="s">
         <v>1</v>
@@ -6934,7 +6944,7 @@
         <v>84</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>1107</v>
+        <v>1097</v>
       </c>
       <c r="E14" s="84" t="s">
         <v>3</v>
@@ -6949,10 +6959,10 @@
         <v>67</v>
       </c>
       <c r="I14" s="84" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>1108</v>
+        <v>1098</v>
       </c>
       <c r="K14" s="50">
         <v>26</v>
@@ -6969,7 +6979,7 @@
     </row>
     <row r="15" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B15" s="84" t="s">
         <v>14</v>
@@ -6993,10 +7003,10 @@
         <v>67</v>
       </c>
       <c r="I15" s="84" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="J15" s="44" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="K15" s="50">
         <v>36</v>
@@ -7013,7 +7023,7 @@
     </row>
     <row r="16" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B16" s="84" t="s">
         <v>19</v>
@@ -7037,10 +7047,10 @@
         <v>67</v>
       </c>
       <c r="I16" s="84" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="J16" s="44" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="K16" s="50">
         <v>42</v>
@@ -7057,7 +7067,7 @@
     </row>
     <row r="17" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B17" s="84" t="s">
         <v>5</v>
@@ -7066,7 +7076,7 @@
         <v>90</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>1109</v>
+        <v>1099</v>
       </c>
       <c r="E17" s="84" t="s">
         <v>3</v>
@@ -7081,10 +7091,10 @@
         <v>67</v>
       </c>
       <c r="I17" s="84" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="J17" s="44" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="K17" s="50">
         <v>22</v>
@@ -7101,7 +7111,7 @@
     </row>
     <row r="18" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B18" s="84" t="s">
         <v>19</v>
@@ -7125,10 +7135,10 @@
         <v>67</v>
       </c>
       <c r="I18" s="84" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="J18" s="44" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="K18" s="50">
         <v>30</v>
@@ -7145,7 +7155,7 @@
     </row>
     <row r="19" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B19" s="84" t="s">
         <v>11</v>
@@ -7169,10 +7179,10 @@
         <v>67</v>
       </c>
       <c r="I19" s="84" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="J19" s="44" t="s">
-        <v>1219</v>
+        <v>1209</v>
       </c>
       <c r="K19" s="50">
         <v>25</v>
@@ -7190,7 +7200,7 @@
     </row>
     <row r="20" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B20" s="84" t="s">
         <v>20</v>
@@ -7214,10 +7224,10 @@
         <v>67</v>
       </c>
       <c r="I20" s="84" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="J20" s="44" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="K20" s="50">
         <v>30</v>
@@ -7234,7 +7244,7 @@
     </row>
     <row r="21" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B21" s="84" t="s">
         <v>4</v>
@@ -7258,10 +7268,10 @@
         <v>67</v>
       </c>
       <c r="I21" s="84" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>1110</v>
+        <v>1100</v>
       </c>
       <c r="K21" s="50">
         <v>43</v>
@@ -7278,7 +7288,7 @@
     </row>
     <row r="22" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B22" s="84" t="s">
         <v>4</v>
@@ -7302,10 +7312,10 @@
         <v>67</v>
       </c>
       <c r="I22" s="84" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="J22" s="44" t="s">
-        <v>1111</v>
+        <v>1101</v>
       </c>
       <c r="K22" s="50">
         <v>27</v>
@@ -7322,7 +7332,7 @@
     </row>
     <row r="23" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B23" s="84" t="s">
         <v>19</v>
@@ -7346,10 +7356,10 @@
         <v>67</v>
       </c>
       <c r="I23" s="84" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="J23" s="44" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="K23" s="50">
         <v>33</v>
@@ -7366,7 +7376,7 @@
     </row>
     <row r="24" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B24" s="84" t="s">
         <v>6</v>
@@ -7390,10 +7400,10 @@
         <v>67</v>
       </c>
       <c r="I24" s="84" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>1112</v>
+        <v>1102</v>
       </c>
       <c r="K24" s="50">
         <v>26</v>
@@ -7410,7 +7420,7 @@
     </row>
     <row r="25" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B25" s="84" t="s">
         <v>19</v>
@@ -7434,10 +7444,10 @@
         <v>67</v>
       </c>
       <c r="I25" s="84" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>1113</v>
+        <v>1103</v>
       </c>
       <c r="K25" s="50">
         <v>30</v>
@@ -7454,7 +7464,7 @@
     </row>
     <row r="26" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B26" s="84" t="s">
         <v>19</v>
@@ -7478,10 +7488,10 @@
         <v>67</v>
       </c>
       <c r="I26" s="84" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>1114</v>
+        <v>1104</v>
       </c>
       <c r="K26" s="50">
         <v>27</v>
@@ -7498,7 +7508,7 @@
     </row>
     <row r="27" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B27" s="84" t="s">
         <v>10</v>
@@ -7522,10 +7532,10 @@
         <v>67</v>
       </c>
       <c r="I27" s="84" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="K27" s="50">
         <v>31</v>
@@ -7542,7 +7552,7 @@
     </row>
     <row r="28" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B28" s="84" t="s">
         <v>21</v>
@@ -7566,10 +7576,10 @@
         <v>67</v>
       </c>
       <c r="I28" s="84" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="J28" s="44" t="s">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="K28" s="50">
         <v>33</v>
@@ -7586,16 +7596,16 @@
     </row>
     <row r="29" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B29" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>1116</v>
+        <v>1106</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>3</v>
@@ -7610,10 +7620,10 @@
         <v>67</v>
       </c>
       <c r="I29" s="84" t="s">
-        <v>1117</v>
+        <v>1107</v>
       </c>
       <c r="J29" s="44" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="K29" s="50">
         <v>24</v>
@@ -7630,7 +7640,7 @@
     </row>
     <row r="30" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B30" s="84" t="s">
         <v>17</v>
@@ -7654,10 +7664,10 @@
         <v>67</v>
       </c>
       <c r="I30" s="84" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="J30" s="44" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K30" s="50">
         <v>27</v>
@@ -7674,7 +7684,7 @@
     </row>
     <row r="31" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B31" s="84" t="s">
         <v>18</v>
@@ -7698,10 +7708,10 @@
         <v>67</v>
       </c>
       <c r="I31" s="84" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="J31" s="44" t="s">
-        <v>1118</v>
+        <v>1108</v>
       </c>
       <c r="K31" s="50">
         <v>23</v>
@@ -7718,7 +7728,7 @@
     </row>
     <row r="32" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B32" s="84" t="s">
         <v>6</v>
@@ -7742,10 +7752,10 @@
         <v>67</v>
       </c>
       <c r="I32" s="84" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="J32" s="44" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="K32" s="50">
         <v>29</v>
@@ -7762,7 +7772,7 @@
     </row>
     <row r="33" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B33" s="84" t="s">
         <v>20</v>
@@ -7786,10 +7796,10 @@
         <v>67</v>
       </c>
       <c r="I33" s="84" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="J33" s="44" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="K33" s="50">
         <v>27</v>
@@ -7807,7 +7817,7 @@
     </row>
     <row r="34" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B34" s="84" t="s">
         <v>5</v>
@@ -7822,7 +7832,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G34" s="84" t="s">
         <v>50</v>
@@ -7831,10 +7841,10 @@
         <v>67</v>
       </c>
       <c r="I34" s="84" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="J34" s="44" t="s">
-        <v>1191</v>
+        <v>1181</v>
       </c>
       <c r="K34" s="50">
         <v>35</v>
@@ -7851,7 +7861,7 @@
     </row>
     <row r="35" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B35" s="84" t="s">
         <v>18</v>
@@ -7875,10 +7885,10 @@
         <v>67</v>
       </c>
       <c r="I35" s="84" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="J35" s="44" t="s">
-        <v>1119</v>
+        <v>1109</v>
       </c>
       <c r="K35" s="50">
         <v>20</v>
@@ -7895,16 +7905,16 @@
     </row>
     <row r="36" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B36" s="84" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="D36" s="44" t="s">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="E36" s="84" t="s">
         <v>3</v>
@@ -7919,10 +7929,10 @@
         <v>67</v>
       </c>
       <c r="I36" s="84" t="s">
-        <v>1122</v>
+        <v>1112</v>
       </c>
       <c r="J36" s="44" t="s">
-        <v>1123</v>
+        <v>1113</v>
       </c>
       <c r="K36" s="50">
         <v>25</v>
@@ -7939,7 +7949,7 @@
     </row>
     <row r="37" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B37" s="84" t="s">
         <v>21</v>
@@ -7963,10 +7973,10 @@
         <v>67</v>
       </c>
       <c r="I37" s="84" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="J37" s="44" t="s">
-        <v>1124</v>
+        <v>1114</v>
       </c>
       <c r="K37" s="50">
         <v>27</v>
@@ -7983,7 +7993,7 @@
     </row>
     <row r="38" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B38" s="84" t="s">
         <v>7</v>
@@ -8007,10 +8017,10 @@
         <v>67</v>
       </c>
       <c r="I38" s="84" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="J38" s="44" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="K38" s="50">
         <v>30</v>
@@ -8027,7 +8037,7 @@
     </row>
     <row r="39" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B39" s="84" t="s">
         <v>12</v>
@@ -8051,7 +8061,7 @@
         <v>67</v>
       </c>
       <c r="I39" s="84" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="J39" s="44" t="s">
         <v>129</v>
@@ -8071,7 +8081,7 @@
     </row>
     <row r="40" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B40" s="84" t="s">
         <v>11</v>
@@ -8080,7 +8090,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>1125</v>
+        <v>1115</v>
       </c>
       <c r="E40" s="84" t="s">
         <v>3</v>
@@ -8095,10 +8105,10 @@
         <v>67</v>
       </c>
       <c r="I40" s="84" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>1126</v>
+        <v>1116</v>
       </c>
       <c r="K40" s="50">
         <v>30</v>
@@ -8115,7 +8125,7 @@
     </row>
     <row r="41" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B41" s="84" t="s">
         <v>26</v>
@@ -8139,10 +8149,10 @@
         <v>67</v>
       </c>
       <c r="I41" s="84" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>1127</v>
+        <v>1117</v>
       </c>
       <c r="K41" s="50">
         <v>30</v>
@@ -8159,7 +8169,7 @@
     </row>
     <row r="42" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B42" s="84" t="s">
         <v>12</v>
@@ -8183,10 +8193,10 @@
         <v>67</v>
       </c>
       <c r="I42" s="84" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>1128</v>
+        <v>1118</v>
       </c>
       <c r="K42" s="50">
         <v>30</v>
@@ -8203,7 +8213,7 @@
     </row>
     <row r="43" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B43" s="84" t="s">
         <v>5</v>
@@ -8227,7 +8237,7 @@
         <v>67</v>
       </c>
       <c r="I43" s="84" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="J43" s="44" t="s">
         <v>137</v>
@@ -8247,7 +8257,7 @@
     </row>
     <row r="44" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B44" s="84" t="s">
         <v>13</v>
@@ -8271,10 +8281,10 @@
         <v>67</v>
       </c>
       <c r="I44" s="84" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="J44" s="44" t="s">
-        <v>1129</v>
+        <v>1119</v>
       </c>
       <c r="K44" s="50">
         <v>30</v>
@@ -8291,7 +8301,7 @@
     </row>
     <row r="45" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B45" s="84" t="s">
         <v>13</v>
@@ -8315,10 +8325,10 @@
         <v>67</v>
       </c>
       <c r="I45" s="84" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="J45" s="44" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="K45" s="50">
         <v>27</v>
@@ -8335,7 +8345,7 @@
     </row>
     <row r="46" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B46" s="84" t="s">
         <v>2</v>
@@ -8359,10 +8369,10 @@
         <v>67</v>
       </c>
       <c r="I46" s="84" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="J46" s="44" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="K46" s="50">
         <v>24</v>
@@ -8379,7 +8389,7 @@
     </row>
     <row r="47" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B47" s="84" t="s">
         <v>8</v>
@@ -8403,10 +8413,10 @@
         <v>67</v>
       </c>
       <c r="I47" s="84" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="J47" s="44" t="s">
-        <v>1130</v>
+        <v>1120</v>
       </c>
       <c r="K47" s="50">
         <v>30</v>
@@ -8423,7 +8433,7 @@
     </row>
     <row r="48" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B48" s="84" t="s">
         <v>13</v>
@@ -8432,7 +8442,7 @@
         <v>146</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>1131</v>
+        <v>1121</v>
       </c>
       <c r="E48" s="84" t="s">
         <v>3</v>
@@ -8447,10 +8457,10 @@
         <v>67</v>
       </c>
       <c r="I48" s="84" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="J48" s="44" t="s">
-        <v>1132</v>
+        <v>1122</v>
       </c>
       <c r="K48" s="50">
         <v>36</v>
@@ -8467,7 +8477,7 @@
     </row>
     <row r="49" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B49" s="84" t="s">
         <v>17</v>
@@ -8491,10 +8501,10 @@
         <v>67</v>
       </c>
       <c r="I49" s="84" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="J49" s="44" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="K49" s="50">
         <v>36</v>
@@ -8511,7 +8521,7 @@
     </row>
     <row r="50" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B50" s="84" t="s">
         <v>2</v>
@@ -8535,10 +8545,10 @@
         <v>67</v>
       </c>
       <c r="I50" s="84" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="J50" s="44" t="s">
-        <v>1133</v>
+        <v>1123</v>
       </c>
       <c r="K50" s="50">
         <v>28</v>
@@ -8555,7 +8565,7 @@
     </row>
     <row r="51" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B51" s="84" t="s">
         <v>6</v>
@@ -8579,10 +8589,10 @@
         <v>67</v>
       </c>
       <c r="I51" s="84" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="J51" s="44" t="s">
-        <v>1134</v>
+        <v>1124</v>
       </c>
       <c r="K51" s="50">
         <v>23</v>
@@ -8599,7 +8609,7 @@
     </row>
     <row r="52" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B52" s="84" t="s">
         <v>17</v>
@@ -8623,10 +8633,10 @@
         <v>67</v>
       </c>
       <c r="I52" s="84" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="J52" s="44" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="K52" s="50">
         <v>34</v>
@@ -8643,7 +8653,7 @@
     </row>
     <row r="53" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B53" s="84" t="s">
         <v>24</v>
@@ -8667,10 +8677,10 @@
         <v>67</v>
       </c>
       <c r="I53" s="84" t="s">
-        <v>1135</v>
+        <v>1125</v>
       </c>
       <c r="J53" s="44" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="K53" s="50">
         <v>33</v>
@@ -8688,7 +8698,7 @@
     </row>
     <row r="54" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B54" s="84" t="s">
         <v>8</v>
@@ -8712,7 +8722,7 @@
         <v>67</v>
       </c>
       <c r="I54" s="84" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="J54" s="44" t="s">
         <v>159</v>
@@ -8733,7 +8743,7 @@
     </row>
     <row r="55" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B55" s="84" t="s">
         <v>7</v>
@@ -8748,7 +8758,7 @@
         <v>3</v>
       </c>
       <c r="F55" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G55" s="84" t="s">
         <v>50</v>
@@ -8757,10 +8767,10 @@
         <v>67</v>
       </c>
       <c r="I55" s="84" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="J55" s="44" t="s">
-        <v>1048</v>
+        <v>1038</v>
       </c>
       <c r="K55" s="50">
         <v>60</v>
@@ -8778,7 +8788,7 @@
     </row>
     <row r="56" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B56" s="84" t="s">
         <v>14</v>
@@ -8802,10 +8812,10 @@
         <v>67</v>
       </c>
       <c r="I56" s="84" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="J56" s="44" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="K56" s="50">
         <v>24</v>
@@ -8823,7 +8833,7 @@
     </row>
     <row r="57" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B57" s="84" t="s">
         <v>14</v>
@@ -8847,10 +8857,10 @@
         <v>67</v>
       </c>
       <c r="I57" s="84" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="J57" s="44" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="K57" s="50">
         <v>18</v>
@@ -8868,7 +8878,7 @@
     </row>
     <row r="58" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B58" s="84" t="s">
         <v>10</v>
@@ -8883,7 +8893,7 @@
         <v>3</v>
       </c>
       <c r="F58" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G58" s="84" t="s">
         <v>50</v>
@@ -8892,10 +8902,10 @@
         <v>67</v>
       </c>
       <c r="I58" s="84" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="J58" s="44" t="s">
-        <v>1049</v>
+        <v>1039</v>
       </c>
       <c r="K58" s="50">
         <v>25</v>
@@ -8913,7 +8923,7 @@
     </row>
     <row r="59" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B59" s="84" t="s">
         <v>1</v>
@@ -8937,10 +8947,10 @@
         <v>67</v>
       </c>
       <c r="I59" s="84" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="J59" s="44" t="s">
-        <v>1192</v>
+        <v>1182</v>
       </c>
       <c r="K59" s="50">
         <v>21</v>
@@ -8958,7 +8968,7 @@
     </row>
     <row r="60" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B60" s="84" t="s">
         <v>9</v>
@@ -8982,10 +8992,10 @@
         <v>67</v>
       </c>
       <c r="I60" s="84" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="J60" s="44" t="s">
-        <v>1193</v>
+        <v>1183</v>
       </c>
       <c r="K60" s="50">
         <v>24</v>
@@ -9003,7 +9013,7 @@
     </row>
     <row r="61" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B61" s="84" t="s">
         <v>18</v>
@@ -9018,7 +9028,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G61" s="84" t="s">
         <v>50</v>
@@ -9027,10 +9037,10 @@
         <v>67</v>
       </c>
       <c r="I61" s="84" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="J61" s="44" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="K61" s="50">
         <v>32</v>
@@ -9048,7 +9058,7 @@
     </row>
     <row r="62" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B62" s="84" t="s">
         <v>5</v>
@@ -9063,7 +9073,7 @@
         <v>3</v>
       </c>
       <c r="F62" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G62" s="84" t="s">
         <v>50</v>
@@ -9072,10 +9082,10 @@
         <v>67</v>
       </c>
       <c r="I62" s="84" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="J62" s="44" t="s">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="K62" s="50">
         <v>21</v>
@@ -9093,7 +9103,7 @@
     </row>
     <row r="63" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B63" s="84" t="s">
         <v>24</v>
@@ -9117,10 +9127,10 @@
         <v>67</v>
       </c>
       <c r="I63" s="84" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="J63" s="44" t="s">
-        <v>1136</v>
+        <v>1126</v>
       </c>
       <c r="K63" s="50">
         <v>33</v>
@@ -9138,7 +9148,7 @@
     </row>
     <row r="64" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B64" s="84" t="s">
         <v>8</v>
@@ -9153,7 +9163,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G64" s="84" t="s">
         <v>50</v>
@@ -9162,10 +9172,10 @@
         <v>67</v>
       </c>
       <c r="I64" s="84" t="s">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="J64" s="44" t="s">
-        <v>1052</v>
+        <v>1042</v>
       </c>
       <c r="K64" s="50">
         <v>19</v>
@@ -9183,7 +9193,7 @@
     </row>
     <row r="65" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B65" s="84" t="s">
         <v>13</v>
@@ -9192,7 +9202,7 @@
         <v>166</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="E65" s="84" t="s">
         <v>3</v>
@@ -9207,10 +9217,10 @@
         <v>67</v>
       </c>
       <c r="I65" s="84" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="J65" s="44" t="s">
-        <v>1137</v>
+        <v>1127</v>
       </c>
       <c r="K65" s="50">
         <v>12</v>
@@ -9228,7 +9238,7 @@
     </row>
     <row r="66" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A66" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B66" s="84" t="s">
         <v>8</v>
@@ -9237,7 +9247,7 @@
         <v>167</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>1138</v>
+        <v>1128</v>
       </c>
       <c r="E66" s="84" t="s">
         <v>3</v>
@@ -9252,10 +9262,10 @@
         <v>67</v>
       </c>
       <c r="I66" s="84" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="J66" s="44" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="K66" s="50">
         <v>33</v>
@@ -9273,7 +9283,7 @@
     </row>
     <row r="67" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B67" s="84" t="s">
         <v>1</v>
@@ -9282,7 +9292,7 @@
         <v>168</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E67" s="84" t="s">
         <v>3</v>
@@ -9297,10 +9307,10 @@
         <v>67</v>
       </c>
       <c r="I67" s="84" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="J67" s="44" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="K67" s="50">
         <v>27</v>
@@ -9318,7 +9328,7 @@
     </row>
     <row r="68" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B68" s="84" t="s">
         <v>16</v>
@@ -9333,7 +9343,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G68" s="84" t="s">
         <v>50</v>
@@ -9342,7 +9352,7 @@
         <v>67</v>
       </c>
       <c r="I68" s="84" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="J68" s="44" t="s">
         <v>56</v>
@@ -9363,7 +9373,7 @@
     </row>
     <row r="69" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B69" s="84" t="s">
         <v>12</v>
@@ -9387,10 +9397,10 @@
         <v>67</v>
       </c>
       <c r="I69" s="84" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="K69" s="50">
         <v>27</v>
@@ -9408,7 +9418,7 @@
     </row>
     <row r="70" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B70" s="84" t="s">
         <v>20</v>
@@ -9432,10 +9442,10 @@
         <v>67</v>
       </c>
       <c r="I70" s="84" t="s">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="J70" s="44" t="s">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="K70" s="50">
         <v>27</v>
@@ -9453,7 +9463,7 @@
     </row>
     <row r="71" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B71" s="84" t="s">
         <v>15</v>
@@ -9477,10 +9487,10 @@
         <v>67</v>
       </c>
       <c r="I71" s="84" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="J71" s="44" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="K71" s="50">
         <v>27</v>
@@ -9498,7 +9508,7 @@
     </row>
     <row r="72" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B72" s="84" t="s">
         <v>15</v>
@@ -9513,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="F72" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G72" s="84" t="s">
         <v>50</v>
@@ -9522,10 +9532,10 @@
         <v>67</v>
       </c>
       <c r="I72" s="84" t="s">
-        <v>1053</v>
+        <v>1043</v>
       </c>
       <c r="J72" s="44" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="K72" s="50">
         <v>35</v>
@@ -9543,7 +9553,7 @@
     </row>
     <row r="73" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B73" s="84" t="s">
         <v>15</v>
@@ -9558,7 +9568,7 @@
         <v>3</v>
       </c>
       <c r="F73" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G73" s="84" t="s">
         <v>51</v>
@@ -9567,10 +9577,10 @@
         <v>67</v>
       </c>
       <c r="I73" s="84" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="J73" s="44" t="s">
-        <v>1194</v>
+        <v>1184</v>
       </c>
       <c r="K73" s="50">
         <v>28</v>
@@ -9588,7 +9598,7 @@
     </row>
     <row r="74" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B74" s="84" t="s">
         <v>5</v>
@@ -9612,10 +9622,10 @@
         <v>67</v>
       </c>
       <c r="I74" s="84" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="J74" s="44" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="K74" s="50">
         <v>27</v>
@@ -9633,7 +9643,7 @@
     </row>
     <row r="75" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B75" s="84" t="s">
         <v>5</v>
@@ -9648,7 +9658,7 @@
         <v>3</v>
       </c>
       <c r="F75" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G75" s="84" t="s">
         <v>50</v>
@@ -9657,10 +9667,10 @@
         <v>67</v>
       </c>
       <c r="I75" s="84" t="s">
-        <v>1055</v>
+        <v>1045</v>
       </c>
       <c r="J75" s="44" t="s">
-        <v>1195</v>
+        <v>1185</v>
       </c>
       <c r="K75" s="50">
         <v>23</v>
@@ -9678,7 +9688,7 @@
     </row>
     <row r="76" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A76" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B76" s="84" t="s">
         <v>19</v>
@@ -9702,10 +9712,10 @@
         <v>67</v>
       </c>
       <c r="I76" s="84" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="J76" s="44" t="s">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="K76" s="50">
         <v>23</v>
@@ -9723,7 +9733,7 @@
     </row>
     <row r="77" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B77" s="84" t="s">
         <v>11</v>
@@ -9747,10 +9757,10 @@
         <v>67</v>
       </c>
       <c r="I77" s="84" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="J77" s="44" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="K77" s="50">
         <v>27</v>
@@ -9768,7 +9778,7 @@
     </row>
     <row r="78" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B78" s="84" t="s">
         <v>13</v>
@@ -9783,7 +9793,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G78" s="84" t="s">
         <v>50</v>
@@ -9792,10 +9802,10 @@
         <v>67</v>
       </c>
       <c r="I78" s="84" t="s">
-        <v>1056</v>
+        <v>1046</v>
       </c>
       <c r="J78" s="44" t="s">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="K78" s="50">
         <v>27</v>
@@ -9813,7 +9823,7 @@
     </row>
     <row r="79" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B79" s="84" t="s">
         <v>7</v>
@@ -9837,10 +9847,10 @@
         <v>67</v>
       </c>
       <c r="I79" s="84" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="J79" s="44" t="s">
-        <v>1142</v>
+        <v>1132</v>
       </c>
       <c r="K79" s="50">
         <v>33</v>
@@ -9858,7 +9868,7 @@
     </row>
     <row r="80" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B80" s="84" t="s">
         <v>17</v>
@@ -9867,7 +9877,7 @@
         <v>183</v>
       </c>
       <c r="D80" s="44" t="s">
-        <v>1143</v>
+        <v>1133</v>
       </c>
       <c r="E80" s="84" t="s">
         <v>3</v>
@@ -9882,7 +9892,7 @@
         <v>67</v>
       </c>
       <c r="I80" s="84" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="J80" s="44" t="s">
         <v>184</v>
@@ -9903,7 +9913,7 @@
     </row>
     <row r="81" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A81" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B81" s="84" t="s">
         <v>11</v>
@@ -9927,10 +9937,10 @@
         <v>67</v>
       </c>
       <c r="I81" s="84" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="J81" s="44" t="s">
-        <v>1144</v>
+        <v>1134</v>
       </c>
       <c r="K81" s="50">
         <v>27</v>
@@ -9948,7 +9958,7 @@
     </row>
     <row r="82" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B82" s="84" t="s">
         <v>22</v>
@@ -9972,10 +9982,10 @@
         <v>67</v>
       </c>
       <c r="I82" s="84" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="J82" s="44" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="K82" s="50">
         <v>27</v>
@@ -9993,7 +10003,7 @@
     </row>
     <row r="83" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B83" s="84" t="s">
         <v>19</v>
@@ -10017,10 +10027,10 @@
         <v>67</v>
       </c>
       <c r="I83" s="84" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="J83" s="44" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="K83" s="50">
         <v>27</v>
@@ -10038,7 +10048,7 @@
     </row>
     <row r="84" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B84" s="84" t="s">
         <v>6</v>
@@ -10047,7 +10057,7 @@
         <v>191</v>
       </c>
       <c r="D84" s="44" t="s">
-        <v>1145</v>
+        <v>1135</v>
       </c>
       <c r="E84" s="84" t="s">
         <v>3</v>
@@ -10062,10 +10072,10 @@
         <v>67</v>
       </c>
       <c r="I84" s="84" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="K84" s="50">
         <v>24</v>
@@ -10083,7 +10093,7 @@
     </row>
     <row r="85" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B85" s="84" t="s">
         <v>10</v>
@@ -10107,10 +10117,10 @@
         <v>67</v>
       </c>
       <c r="I85" s="84" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>1146</v>
+        <v>1136</v>
       </c>
       <c r="K85" s="50">
         <v>43</v>
@@ -10128,7 +10138,7 @@
     </row>
     <row r="86" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B86" s="84" t="s">
         <v>10</v>
@@ -10137,7 +10147,7 @@
         <v>194</v>
       </c>
       <c r="D86" s="44" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
       <c r="E86" s="84" t="s">
         <v>3</v>
@@ -10152,10 +10162,10 @@
         <v>67</v>
       </c>
       <c r="I86" s="84" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="J86" s="44" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="K86" s="50">
         <v>24</v>
@@ -10173,7 +10183,7 @@
     </row>
     <row r="87" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A87" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B87" s="84" t="s">
         <v>26</v>
@@ -10197,10 +10207,10 @@
         <v>67</v>
       </c>
       <c r="I87" s="84" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="K87" s="50">
         <v>27</v>
@@ -10218,7 +10228,7 @@
     </row>
     <row r="88" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A88" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B88" s="84" t="s">
         <v>9</v>
@@ -10242,10 +10252,10 @@
         <v>67</v>
       </c>
       <c r="I88" s="84" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="J88" s="44" t="s">
-        <v>1148</v>
+        <v>1138</v>
       </c>
       <c r="K88" s="50">
         <v>30</v>
@@ -10263,7 +10273,7 @@
     </row>
     <row r="89" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A89" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B89" s="84" t="s">
         <v>8</v>
@@ -10287,10 +10297,10 @@
         <v>67</v>
       </c>
       <c r="I89" s="84" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
       <c r="J89" s="44" t="s">
-        <v>1149</v>
+        <v>1139</v>
       </c>
       <c r="K89" s="50">
         <v>33</v>
@@ -10308,7 +10318,7 @@
     </row>
     <row r="90" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A90" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B90" s="84" t="s">
         <v>8</v>
@@ -10332,10 +10342,10 @@
         <v>67</v>
       </c>
       <c r="I90" s="84" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="J90" s="44" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="K90" s="50">
         <v>33</v>
@@ -10353,7 +10363,7 @@
     </row>
     <row r="91" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A91" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B91" s="84" t="s">
         <v>20</v>
@@ -10377,10 +10387,10 @@
         <v>67</v>
       </c>
       <c r="I91" s="84" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
       <c r="J91" s="44" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="K91" s="50">
         <v>33</v>
@@ -10398,7 +10408,7 @@
     </row>
     <row r="92" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A92" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B92" s="84" t="s">
         <v>20</v>
@@ -10407,7 +10417,7 @@
         <v>205</v>
       </c>
       <c r="D92" s="44" t="s">
-        <v>1305</v>
+        <v>1295</v>
       </c>
       <c r="E92" s="84" t="s">
         <v>3</v>
@@ -10422,10 +10432,10 @@
         <v>67</v>
       </c>
       <c r="I92" s="84" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="J92" s="44" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
       <c r="K92" s="50">
         <v>28</v>
@@ -10443,7 +10453,7 @@
     </row>
     <row r="93" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A93" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B93" s="84" t="s">
         <v>7</v>
@@ -10467,10 +10477,10 @@
         <v>67</v>
       </c>
       <c r="I93" s="84" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="J93" s="44" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="K93" s="50">
         <v>27</v>
@@ -10488,7 +10498,7 @@
     </row>
     <row r="94" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A94" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B94" s="84" t="s">
         <v>20</v>
@@ -10512,10 +10522,10 @@
         <v>67</v>
       </c>
       <c r="I94" s="84" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="J94" s="44" t="s">
-        <v>1150</v>
+        <v>1140</v>
       </c>
       <c r="K94" s="50">
         <v>27</v>
@@ -10533,7 +10543,7 @@
     </row>
     <row r="95" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A95" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B95" s="84" t="s">
         <v>20</v>
@@ -10557,10 +10567,10 @@
         <v>67</v>
       </c>
       <c r="I95" s="84" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
       <c r="J95" s="44" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="K95" s="50">
         <v>30</v>
@@ -10578,7 +10588,7 @@
     </row>
     <row r="96" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A96" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B96" s="84" t="s">
         <v>13</v>
@@ -10602,10 +10612,10 @@
         <v>67</v>
       </c>
       <c r="I96" s="84" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="J96" s="44" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="K96" s="50">
         <v>33</v>
@@ -10623,7 +10633,7 @@
     </row>
     <row r="97" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A97" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B97" s="84" t="s">
         <v>16</v>
@@ -10647,10 +10657,10 @@
         <v>67</v>
       </c>
       <c r="I97" s="84" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="J97" s="44" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="K97" s="50">
         <v>43</v>
@@ -10668,22 +10678,22 @@
     </row>
     <row r="98" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A98" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B98" s="84" t="s">
         <v>16</v>
       </c>
       <c r="C98" s="44" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D98" s="44" t="s">
         <v>573</v>
-      </c>
-      <c r="D98" s="44" t="s">
-        <v>574</v>
       </c>
       <c r="E98" s="84" t="s">
         <v>3</v>
       </c>
       <c r="F98" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G98" s="84" t="s">
         <v>50</v>
@@ -10692,10 +10702,10 @@
         <v>67</v>
       </c>
       <c r="I98" s="84" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="J98" s="44" t="s">
-        <v>1058</v>
+        <v>1048</v>
       </c>
       <c r="K98" s="50">
         <v>33</v>
@@ -10713,7 +10723,7 @@
     </row>
     <row r="99" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A99" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B99" s="84" t="s">
         <v>26</v>
@@ -10737,10 +10747,10 @@
         <v>67</v>
       </c>
       <c r="I99" s="84" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
       <c r="J99" s="44" t="s">
-        <v>1151</v>
+        <v>1141</v>
       </c>
       <c r="K99" s="50">
         <v>27</v>
@@ -10758,7 +10768,7 @@
     </row>
     <row r="100" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A100" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B100" s="84" t="s">
         <v>17</v>
@@ -10782,10 +10792,10 @@
         <v>67</v>
       </c>
       <c r="I100" s="84" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="J100" s="44" t="s">
-        <v>1152</v>
+        <v>1142</v>
       </c>
       <c r="K100" s="50">
         <v>30</v>
@@ -10803,7 +10813,7 @@
     </row>
     <row r="101" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B101" s="84" t="s">
         <v>22</v>
@@ -10827,7 +10837,7 @@
         <v>67</v>
       </c>
       <c r="I101" s="84" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="J101" s="44" t="s">
         <v>222</v>
@@ -10848,7 +10858,7 @@
     </row>
     <row r="102" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B102" s="84" t="s">
         <v>6</v>
@@ -10872,10 +10882,10 @@
         <v>67</v>
       </c>
       <c r="I102" s="84" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="J102" s="44" t="s">
-        <v>1153</v>
+        <v>1143</v>
       </c>
       <c r="K102" s="50">
         <v>24</v>
@@ -10893,7 +10903,7 @@
     </row>
     <row r="103" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B103" s="84" t="s">
         <v>4</v>
@@ -10917,7 +10927,7 @@
         <v>67</v>
       </c>
       <c r="I103" s="84" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="J103" s="44" t="s">
         <v>227</v>
@@ -10938,7 +10948,7 @@
     </row>
     <row r="104" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B104" s="84" t="s">
         <v>18</v>
@@ -10962,10 +10972,10 @@
         <v>67</v>
       </c>
       <c r="I104" s="84" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
       <c r="J104" s="44" t="s">
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="K104" s="50">
         <v>30</v>
@@ -10983,7 +10993,7 @@
     </row>
     <row r="105" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A105" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B105" s="84" t="s">
         <v>13</v>
@@ -11007,10 +11017,10 @@
         <v>67</v>
       </c>
       <c r="I105" s="84" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="J105" s="44" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="K105" s="50">
         <v>36</v>
@@ -11028,7 +11038,7 @@
     </row>
     <row r="106" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A106" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B106" s="84" t="s">
         <v>13</v>
@@ -11052,10 +11062,10 @@
         <v>67</v>
       </c>
       <c r="I106" s="84" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="J106" s="44" t="s">
-        <v>1155</v>
+        <v>1145</v>
       </c>
       <c r="K106" s="50">
         <v>30</v>
@@ -11073,7 +11083,7 @@
     </row>
     <row r="107" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A107" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B107" s="84" t="s">
         <v>13</v>
@@ -11097,10 +11107,10 @@
         <v>67</v>
       </c>
       <c r="I107" s="84" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="J107" s="44" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
       <c r="K107" s="50">
         <v>24</v>
@@ -11118,7 +11128,7 @@
     </row>
     <row r="108" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A108" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B108" s="84" t="s">
         <v>16</v>
@@ -11142,10 +11152,10 @@
         <v>67</v>
       </c>
       <c r="I108" s="84" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="J108" s="44" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="K108" s="50">
         <v>24</v>
@@ -11163,7 +11173,7 @@
     </row>
     <row r="109" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A109" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B109" s="84" t="s">
         <v>26</v>
@@ -11187,10 +11197,10 @@
         <v>67</v>
       </c>
       <c r="I109" s="84" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="J109" s="44" t="s">
-        <v>1156</v>
+        <v>1146</v>
       </c>
       <c r="K109" s="50">
         <v>27</v>
@@ -11208,7 +11218,7 @@
     </row>
     <row r="110" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A110" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B110" s="84" t="s">
         <v>22</v>
@@ -11232,10 +11242,10 @@
         <v>67</v>
       </c>
       <c r="I110" s="84" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="J110" s="44" t="s">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="K110" s="50">
         <v>32</v>
@@ -11253,7 +11263,7 @@
     </row>
     <row r="111" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A111" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B111" s="84" t="s">
         <v>13</v>
@@ -11277,10 +11287,10 @@
         <v>67</v>
       </c>
       <c r="I111" s="84" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="J111" s="44" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="K111" s="50">
         <v>36</v>
@@ -11298,7 +11308,7 @@
     </row>
     <row r="112" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A112" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B112" s="84" t="s">
         <v>18</v>
@@ -11307,7 +11317,7 @@
         <v>244</v>
       </c>
       <c r="D112" s="44" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="E112" s="84" t="s">
         <v>3</v>
@@ -11322,10 +11332,10 @@
         <v>67</v>
       </c>
       <c r="I112" s="84" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="J112" s="44" t="s">
-        <v>1158</v>
+        <v>1148</v>
       </c>
       <c r="K112" s="50">
         <v>43</v>
@@ -11343,7 +11353,7 @@
     </row>
     <row r="113" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A113" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B113" s="84" t="s">
         <v>9</v>
@@ -11367,10 +11377,10 @@
         <v>67</v>
       </c>
       <c r="I113" s="84" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="J113" s="44" t="s">
-        <v>1159</v>
+        <v>1149</v>
       </c>
       <c r="K113" s="50">
         <v>33</v>
@@ -11388,7 +11398,7 @@
     </row>
     <row r="114" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A114" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B114" s="84" t="s">
         <v>25</v>
@@ -11412,10 +11422,10 @@
         <v>67</v>
       </c>
       <c r="I114" s="84" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="J114" s="44" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="K114" s="50">
         <v>36</v>
@@ -11433,7 +11443,7 @@
     </row>
     <row r="115" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A115" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B115" s="84" t="s">
         <v>26</v>
@@ -11457,10 +11467,10 @@
         <v>67</v>
       </c>
       <c r="I115" s="84" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
       <c r="J115" s="44" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
       <c r="K115" s="50">
         <v>30</v>
@@ -11478,22 +11488,22 @@
     </row>
     <row r="116" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A116" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B116" s="84" t="s">
         <v>20</v>
       </c>
       <c r="C116" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="D116" s="44" t="s">
         <v>575</v>
-      </c>
-      <c r="D116" s="44" t="s">
-        <v>576</v>
       </c>
       <c r="E116" s="84" t="s">
         <v>3</v>
       </c>
       <c r="F116" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G116" s="84" t="s">
         <v>50</v>
@@ -11502,10 +11512,10 @@
         <v>67</v>
       </c>
       <c r="I116" s="84" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="J116" s="44" t="s">
-        <v>1196</v>
+        <v>1186</v>
       </c>
       <c r="K116" s="50">
         <v>24</v>
@@ -11523,7 +11533,7 @@
     </row>
     <row r="117" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A117" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B117" s="84" t="s">
         <v>23</v>
@@ -11532,7 +11542,7 @@
         <v>251</v>
       </c>
       <c r="D117" s="44" t="s">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="E117" s="84" t="s">
         <v>3</v>
@@ -11547,10 +11557,10 @@
         <v>67</v>
       </c>
       <c r="I117" s="84" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
       <c r="J117" s="44" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
       <c r="K117" s="50">
         <v>20</v>
@@ -11568,7 +11578,7 @@
     </row>
     <row r="118" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A118" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B118" s="84" t="s">
         <v>2</v>
@@ -11592,10 +11602,10 @@
         <v>67</v>
       </c>
       <c r="I118" s="84" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="J118" s="44" t="s">
-        <v>1217</v>
+        <v>1207</v>
       </c>
       <c r="K118" s="50">
         <v>30</v>
@@ -11613,7 +11623,7 @@
     </row>
     <row r="119" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A119" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B119" s="84" t="s">
         <v>18</v>
@@ -11637,7 +11647,7 @@
         <v>67</v>
       </c>
       <c r="I119" s="84" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="J119" s="44" t="s">
         <v>55</v>
@@ -11658,22 +11668,22 @@
     </row>
     <row r="120" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A120" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B120" s="84" t="s">
         <v>25</v>
       </c>
       <c r="C120" s="44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D120" s="44" t="s">
-        <v>1197</v>
+        <v>1187</v>
       </c>
       <c r="E120" s="84" t="s">
         <v>3</v>
       </c>
       <c r="F120" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G120" s="84" t="s">
         <v>50</v>
@@ -11682,10 +11692,10 @@
         <v>67</v>
       </c>
       <c r="I120" s="84" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="J120" s="44" t="s">
-        <v>1198</v>
+        <v>1188</v>
       </c>
       <c r="K120" s="50">
         <v>29</v>
@@ -11703,7 +11713,7 @@
     </row>
     <row r="121" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A121" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B121" s="84" t="s">
         <v>25</v>
@@ -11727,10 +11737,10 @@
         <v>67</v>
       </c>
       <c r="I121" s="84" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="J121" s="44" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
       <c r="K121" s="50">
         <v>23</v>
@@ -11748,7 +11758,7 @@
     </row>
     <row r="122" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A122" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B122" s="84" t="s">
         <v>12</v>
@@ -11772,10 +11782,10 @@
         <v>67</v>
       </c>
       <c r="I122" s="84" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="J122" s="44" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
       <c r="K122" s="50">
         <v>24</v>
@@ -11792,7 +11802,7 @@
     </row>
     <row r="123" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A123" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B123" s="84" t="s">
         <v>10</v>
@@ -11816,10 +11826,10 @@
         <v>67</v>
       </c>
       <c r="I123" s="84" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="J123" s="44" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
       <c r="K123" s="50">
         <v>36</v>
@@ -11836,7 +11846,7 @@
     </row>
     <row r="124" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A124" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B124" s="84" t="s">
         <v>4</v>
@@ -11860,10 +11870,10 @@
         <v>67</v>
       </c>
       <c r="I124" s="84" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
       <c r="J124" s="44" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
       <c r="K124" s="50">
         <v>36</v>
@@ -11880,22 +11890,22 @@
     </row>
     <row r="125" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A125" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B125" s="84" t="s">
         <v>15</v>
       </c>
       <c r="C125" s="44" t="s">
-        <v>578</v>
+        <v>1316</v>
       </c>
       <c r="D125" s="44" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E125" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F125" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G125" s="84" t="s">
         <v>51</v>
@@ -11904,10 +11914,10 @@
         <v>67</v>
       </c>
       <c r="I125" s="84" t="s">
-        <v>1059</v>
+        <v>1049</v>
       </c>
       <c r="J125" s="44" t="s">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="K125" s="50">
         <v>15</v>
@@ -11924,7 +11934,7 @@
     </row>
     <row r="126" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A126" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B126" s="84" t="s">
         <v>7</v>
@@ -11948,10 +11958,10 @@
         <v>67</v>
       </c>
       <c r="I126" s="84" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
       <c r="J126" s="44" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
       <c r="K126" s="50">
         <v>24</v>
@@ -11968,22 +11978,22 @@
     </row>
     <row r="127" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A127" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B127" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="44" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D127" s="44" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E127" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F127" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G127" s="84" t="s">
         <v>51</v>
@@ -11992,10 +12002,10 @@
         <v>67</v>
       </c>
       <c r="I127" s="84" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="J127" s="44" t="s">
-        <v>1218</v>
+        <v>1208</v>
       </c>
       <c r="K127" s="50">
         <v>27</v>
@@ -12012,7 +12022,7 @@
     </row>
     <row r="128" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A128" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B128" s="84" t="s">
         <v>11</v>
@@ -12021,7 +12031,7 @@
         <v>266</v>
       </c>
       <c r="D128" s="44" t="s">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="E128" s="84" t="s">
         <v>0</v>
@@ -12036,10 +12046,10 @@
         <v>67</v>
       </c>
       <c r="I128" s="84" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
       <c r="J128" s="44" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
       <c r="K128" s="50">
         <v>24</v>
@@ -12056,7 +12066,7 @@
     </row>
     <row r="129" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A129" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B129" s="84" t="s">
         <v>24</v>
@@ -12080,10 +12090,10 @@
         <v>67</v>
       </c>
       <c r="I129" s="84" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="J129" s="44" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
       <c r="K129" s="50">
         <v>24</v>
@@ -12100,7 +12110,7 @@
     </row>
     <row r="130" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A130" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B130" s="84" t="s">
         <v>14</v>
@@ -12124,7 +12134,7 @@
         <v>67</v>
       </c>
       <c r="I130" s="84" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="J130" s="44" t="s">
         <v>57</v>
@@ -12144,7 +12154,7 @@
     </row>
     <row r="131" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A131" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B131" s="84" t="s">
         <v>25</v>
@@ -12153,7 +12163,7 @@
         <v>271</v>
       </c>
       <c r="D131" s="44" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="E131" s="84" t="s">
         <v>0</v>
@@ -12168,10 +12178,10 @@
         <v>67</v>
       </c>
       <c r="I131" s="84" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="J131" s="44" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="K131" s="50">
         <v>24</v>
@@ -12188,7 +12198,7 @@
     </row>
     <row r="132" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A132" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B132" s="84" t="s">
         <v>25</v>
@@ -12197,7 +12207,7 @@
         <v>272</v>
       </c>
       <c r="D132" s="44" t="s">
-        <v>1161</v>
+        <v>1151</v>
       </c>
       <c r="E132" s="84" t="s">
         <v>0</v>
@@ -12212,7 +12222,7 @@
         <v>67</v>
       </c>
       <c r="I132" s="84" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="J132" s="44" t="s">
         <v>273</v>
@@ -12232,16 +12242,16 @@
     </row>
     <row r="133" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A133" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B133" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C133" s="44" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D133" s="44" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
       <c r="E133" s="84" t="s">
         <v>0</v>
@@ -12256,10 +12266,10 @@
         <v>67</v>
       </c>
       <c r="I133" s="84" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="J133" s="44" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
       <c r="K133" s="50">
         <v>33</v>
@@ -12276,7 +12286,7 @@
     </row>
     <row r="134" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A134" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B134" s="84" t="s">
         <v>1</v>
@@ -12300,10 +12310,10 @@
         <v>67</v>
       </c>
       <c r="I134" s="84" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="J134" s="44" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
       <c r="K134" s="50">
         <v>27</v>
@@ -12320,22 +12330,22 @@
     </row>
     <row r="135" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A135" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B135" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C135" s="44" t="s">
-        <v>582</v>
+        <v>1310</v>
       </c>
       <c r="D135" s="44" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="E135" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F135" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G135" s="84" t="s">
         <v>50</v>
@@ -12344,10 +12354,10 @@
         <v>67</v>
       </c>
       <c r="I135" s="84" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="J135" s="44" t="s">
-        <v>1061</v>
+        <v>1051</v>
       </c>
       <c r="K135" s="50">
         <v>18</v>
@@ -12364,7 +12374,7 @@
     </row>
     <row r="136" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A136" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B136" s="84" t="s">
         <v>12</v>
@@ -12388,10 +12398,10 @@
         <v>67</v>
       </c>
       <c r="I136" s="84" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="J136" s="44" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
       <c r="K136" s="50">
         <v>39</v>
@@ -12408,7 +12418,7 @@
     </row>
     <row r="137" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A137" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B137" s="84" t="s">
         <v>24</v>
@@ -12432,10 +12442,10 @@
         <v>67</v>
       </c>
       <c r="I137" s="84" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="J137" s="44" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="K137" s="50">
         <v>27</v>
@@ -12452,7 +12462,7 @@
     </row>
     <row r="138" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A138" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B138" s="84" t="s">
         <v>6</v>
@@ -12476,10 +12486,10 @@
         <v>67</v>
       </c>
       <c r="I138" s="84" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J138" s="44" t="s">
-        <v>1162</v>
+        <v>1152</v>
       </c>
       <c r="K138" s="50">
         <v>27</v>
@@ -12496,22 +12506,22 @@
     </row>
     <row r="139" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B139" s="84" t="s">
         <v>6</v>
       </c>
       <c r="C139" s="44" t="s">
-        <v>584</v>
+        <v>1314</v>
       </c>
       <c r="D139" s="44" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E139" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F139" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G139" s="84" t="s">
         <v>50</v>
@@ -12520,10 +12530,10 @@
         <v>67</v>
       </c>
       <c r="I139" s="84" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="J139" s="44" t="s">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="K139" s="50">
         <v>16</v>
@@ -12540,7 +12550,7 @@
     </row>
     <row r="140" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B140" s="84" t="s">
         <v>10</v>
@@ -12564,10 +12574,10 @@
         <v>67</v>
       </c>
       <c r="I140" s="84" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="J140" s="44" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="K140" s="50">
         <v>39</v>
@@ -12584,7 +12594,7 @@
     </row>
     <row r="141" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B141" s="84" t="s">
         <v>10</v>
@@ -12608,10 +12618,10 @@
         <v>67</v>
       </c>
       <c r="I141" s="84" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="J141" s="44" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
       <c r="K141" s="50">
         <v>39</v>
@@ -12628,22 +12638,22 @@
     </row>
     <row r="142" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B142" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C142" s="44" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D142" s="44" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E142" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F142" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G142" s="84" t="s">
         <v>52</v>
@@ -12652,10 +12662,10 @@
         <v>67</v>
       </c>
       <c r="I142" s="84" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="J142" s="44" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="K142" s="50">
         <v>30</v>
@@ -12672,7 +12682,7 @@
     </row>
     <row r="143" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B143" s="84" t="s">
         <v>6</v>
@@ -12696,7 +12706,7 @@
         <v>67</v>
       </c>
       <c r="I143" s="84" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="J143" s="44" t="s">
         <v>63</v>
@@ -12716,22 +12726,22 @@
     </row>
     <row r="144" spans="1:14" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B144" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C144" s="44" t="s">
-        <v>588</v>
+        <v>1309</v>
       </c>
       <c r="D144" s="44" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E144" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F144" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G144" s="84" t="s">
         <v>52</v>
@@ -12740,10 +12750,10 @@
         <v>67</v>
       </c>
       <c r="I144" s="84" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="J144" s="44" t="s">
-        <v>1063</v>
+        <v>1053</v>
       </c>
       <c r="K144" s="50">
         <v>15</v>
@@ -12760,7 +12770,7 @@
     </row>
     <row r="145" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B145" s="84" t="s">
         <v>9</v>
@@ -12784,10 +12794,10 @@
         <v>67</v>
       </c>
       <c r="I145" s="84" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="J145" s="44" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
       <c r="K145" s="50">
         <v>39</v>
@@ -12804,22 +12814,22 @@
     </row>
     <row r="146" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A146" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B146" s="84" t="s">
         <v>15</v>
       </c>
       <c r="C146" s="44" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D146" s="44" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E146" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F146" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G146" s="84" t="s">
         <v>50</v>
@@ -12828,10 +12838,10 @@
         <v>67</v>
       </c>
       <c r="I146" s="84" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="J146" s="44" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="K146" s="50">
         <v>24</v>
@@ -12848,7 +12858,7 @@
     </row>
     <row r="147" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A147" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B147" s="84" t="s">
         <v>25</v>
@@ -12872,10 +12882,10 @@
         <v>67</v>
       </c>
       <c r="I147" s="84" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="J147" s="44" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
       <c r="K147" s="50">
         <v>29</v>
@@ -12892,22 +12902,22 @@
     </row>
     <row r="148" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A148" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B148" s="84" t="s">
         <v>14</v>
       </c>
       <c r="C148" s="44" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D148" s="44" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E148" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F148" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G148" s="84" t="s">
         <v>50</v>
@@ -12916,10 +12926,10 @@
         <v>67</v>
       </c>
       <c r="I148" s="84" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="J148" s="44" t="s">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="K148" s="50">
         <v>30</v>
@@ -12936,7 +12946,7 @@
     </row>
     <row r="149" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A149" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B149" s="84" t="s">
         <v>22</v>
@@ -12960,10 +12970,10 @@
         <v>67</v>
       </c>
       <c r="I149" s="84" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="J149" s="44" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
       <c r="K149" s="50">
         <v>30</v>
@@ -12980,7 +12990,7 @@
     </row>
     <row r="150" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A150" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B150" s="84" t="s">
         <v>14</v>
@@ -13004,10 +13014,10 @@
         <v>67</v>
       </c>
       <c r="I150" s="84" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="J150" s="44" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
       <c r="K150" s="50">
         <v>27</v>
@@ -13024,7 +13034,7 @@
     </row>
     <row r="151" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A151" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B151" s="84" t="s">
         <v>4</v>
@@ -13048,10 +13058,10 @@
         <v>67</v>
       </c>
       <c r="I151" s="84" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="J151" s="44" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="K151" s="50">
         <v>30</v>
@@ -13068,7 +13078,7 @@
     </row>
     <row r="152" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A152" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B152" s="84" t="s">
         <v>4</v>
@@ -13092,10 +13102,10 @@
         <v>67</v>
       </c>
       <c r="I152" s="84" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="J152" s="44" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
       <c r="K152" s="50">
         <v>28</v>
@@ -13112,7 +13122,7 @@
     </row>
     <row r="153" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A153" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B153" s="84" t="s">
         <v>4</v>
@@ -13136,10 +13146,10 @@
         <v>67</v>
       </c>
       <c r="I153" s="84" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="J153" s="44" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
       <c r="K153" s="50">
         <v>30</v>
@@ -13157,7 +13167,7 @@
     </row>
     <row r="154" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A154" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B154" s="84" t="s">
         <v>11</v>
@@ -13181,7 +13191,7 @@
         <v>67</v>
       </c>
       <c r="I154" s="84" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="J154" s="44" t="s">
         <v>304</v>
@@ -13201,22 +13211,22 @@
     </row>
     <row r="155" spans="1:15" s="13" customFormat="1" ht="15" customHeight="1">
       <c r="A155" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B155" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C155" s="44" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D155" s="44" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="E155" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F155" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G155" s="84" t="s">
         <v>51</v>
@@ -13225,10 +13235,10 @@
         <v>67</v>
       </c>
       <c r="I155" s="84" t="s">
-        <v>1199</v>
+        <v>1189</v>
       </c>
       <c r="J155" s="44" t="s">
-        <v>1200</v>
+        <v>1190</v>
       </c>
       <c r="K155" s="50">
         <v>23</v>
@@ -13246,7 +13256,7 @@
     </row>
     <row r="156" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A156" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B156" s="84" t="s">
         <v>1</v>
@@ -13255,7 +13265,7 @@
         <v>305</v>
       </c>
       <c r="D156" s="44" t="s">
-        <v>1163</v>
+        <v>1153</v>
       </c>
       <c r="E156" s="84" t="s">
         <v>0</v>
@@ -13270,10 +13280,10 @@
         <v>67</v>
       </c>
       <c r="I156" s="84" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="J156" s="44" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
       <c r="K156" s="50">
         <v>30</v>
@@ -13291,7 +13301,7 @@
     </row>
     <row r="157" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A157" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B157" s="84" t="s">
         <v>17</v>
@@ -13315,10 +13325,10 @@
         <v>67</v>
       </c>
       <c r="I157" s="84" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="J157" s="44" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="K157" s="50">
         <v>39</v>
@@ -13336,22 +13346,22 @@
     </row>
     <row r="158" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A158" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B158" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C158" s="44" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D158" s="44" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="E158" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F158" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G158" s="84" t="s">
         <v>50</v>
@@ -13360,10 +13370,10 @@
         <v>67</v>
       </c>
       <c r="I158" s="84" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="J158" s="44" t="s">
-        <v>1211</v>
+        <v>1201</v>
       </c>
       <c r="K158" s="50">
         <v>27</v>
@@ -13381,7 +13391,7 @@
     </row>
     <row r="159" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A159" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B159" s="84" t="s">
         <v>17</v>
@@ -13405,10 +13415,10 @@
         <v>67</v>
       </c>
       <c r="I159" s="84" t="s">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="J159" s="44" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="K159" s="50">
         <v>39</v>
@@ -13426,7 +13436,7 @@
     </row>
     <row r="160" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A160" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B160" s="84" t="s">
         <v>14</v>
@@ -13450,10 +13460,10 @@
         <v>67</v>
       </c>
       <c r="I160" s="84" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="J160" s="44" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
       <c r="K160" s="50">
         <v>27</v>
@@ -13471,7 +13481,7 @@
     </row>
     <row r="161" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A161" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B161" s="84" t="s">
         <v>11</v>
@@ -13480,7 +13490,7 @@
         <v>312</v>
       </c>
       <c r="D161" s="44" t="s">
-        <v>1164</v>
+        <v>1154</v>
       </c>
       <c r="E161" s="84" t="s">
         <v>0</v>
@@ -13495,10 +13505,10 @@
         <v>67</v>
       </c>
       <c r="I161" s="84" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="J161" s="44" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="K161" s="50">
         <v>42</v>
@@ -13516,7 +13526,7 @@
     </row>
     <row r="162" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A162" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B162" s="84" t="s">
         <v>11</v>
@@ -13540,10 +13550,10 @@
         <v>67</v>
       </c>
       <c r="I162" s="84" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="J162" s="44" t="s">
-        <v>1165</v>
+        <v>1155</v>
       </c>
       <c r="K162" s="50">
         <v>15</v>
@@ -13561,22 +13571,22 @@
     </row>
     <row r="163" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A163" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B163" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C163" s="44" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D163" s="44" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="E163" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F163" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G163" s="84" t="s">
         <v>50</v>
@@ -13585,10 +13595,10 @@
         <v>67</v>
       </c>
       <c r="I163" s="84" t="s">
-        <v>1066</v>
+        <v>1056</v>
       </c>
       <c r="J163" s="44" t="s">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="K163" s="50">
         <v>12</v>
@@ -13606,22 +13616,22 @@
     </row>
     <row r="164" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A164" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B164" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="44" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D164" s="44" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="E164" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F164" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G164" s="84" t="s">
         <v>51</v>
@@ -13630,10 +13640,10 @@
         <v>67</v>
       </c>
       <c r="I164" s="84" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="J164" s="44" t="s">
-        <v>1068</v>
+        <v>1058</v>
       </c>
       <c r="K164" s="50">
         <v>30</v>
@@ -13651,7 +13661,7 @@
     </row>
     <row r="165" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A165" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B165" s="84" t="s">
         <v>25</v>
@@ -13660,7 +13670,7 @@
         <v>315</v>
       </c>
       <c r="D165" s="44" t="s">
-        <v>1307</v>
+        <v>1297</v>
       </c>
       <c r="E165" s="84" t="s">
         <v>0</v>
@@ -13675,10 +13685,10 @@
         <v>67</v>
       </c>
       <c r="I165" s="84" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="J165" s="44" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="K165" s="50">
         <v>33</v>
@@ -13696,7 +13706,7 @@
     </row>
     <row r="166" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A166" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B166" s="84" t="s">
         <v>4</v>
@@ -13720,10 +13730,10 @@
         <v>67</v>
       </c>
       <c r="I166" s="84" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="J166" s="44" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="K166" s="50">
         <v>30</v>
@@ -13741,7 +13751,7 @@
     </row>
     <row r="167" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A167" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B167" s="84" t="s">
         <v>8</v>
@@ -13765,10 +13775,10 @@
         <v>67</v>
       </c>
       <c r="I167" s="84" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="J167" s="44" t="s">
-        <v>991</v>
+        <v>981</v>
       </c>
       <c r="K167" s="50">
         <v>39</v>
@@ -13786,7 +13796,7 @@
     </row>
     <row r="168" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A168" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B168" s="84" t="s">
         <v>22</v>
@@ -13810,10 +13820,10 @@
         <v>67</v>
       </c>
       <c r="I168" s="84" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="J168" s="44" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="K168" s="50">
         <v>39</v>
@@ -13831,22 +13841,22 @@
     </row>
     <row r="169" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A169" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B169" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C169" s="44" t="s">
-        <v>603</v>
+        <v>1318</v>
       </c>
       <c r="D169" s="44" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="E169" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F169" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G169" s="84" t="s">
         <v>51</v>
@@ -13855,10 +13865,10 @@
         <v>67</v>
       </c>
       <c r="I169" s="84" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="J169" s="44" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
       <c r="K169" s="50">
         <v>15</v>
@@ -13876,7 +13886,7 @@
     </row>
     <row r="170" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A170" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B170" s="84" t="s">
         <v>12</v>
@@ -13900,7 +13910,7 @@
         <v>67</v>
       </c>
       <c r="I170" s="84" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="J170" s="44" t="s">
         <v>58</v>
@@ -13921,22 +13931,22 @@
     </row>
     <row r="171" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A171" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B171" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C171" s="44" t="s">
-        <v>605</v>
+        <v>1317</v>
       </c>
       <c r="D171" s="44" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E171" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F171" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G171" s="84" t="s">
         <v>50</v>
@@ -13945,10 +13955,10 @@
         <v>67</v>
       </c>
       <c r="I171" s="84" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="J171" s="44" t="s">
-        <v>1201</v>
+        <v>1191</v>
       </c>
       <c r="K171" s="50">
         <v>44</v>
@@ -13966,7 +13976,7 @@
     </row>
     <row r="172" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A172" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B172" s="84" t="s">
         <v>14</v>
@@ -13990,10 +14000,10 @@
         <v>67</v>
       </c>
       <c r="I172" s="84" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="J172" s="44" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="K172" s="50">
         <v>31</v>
@@ -14011,7 +14021,7 @@
     </row>
     <row r="173" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A173" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B173" s="84" t="s">
         <v>11</v>
@@ -14035,7 +14045,7 @@
         <v>67</v>
       </c>
       <c r="I173" s="84" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="J173" s="44" t="s">
         <v>328</v>
@@ -14056,7 +14066,7 @@
     </row>
     <row r="174" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A174" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B174" s="84" t="s">
         <v>21</v>
@@ -14080,7 +14090,7 @@
         <v>67</v>
       </c>
       <c r="I174" s="84" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="J174" s="44" t="s">
         <v>47</v>
@@ -14101,22 +14111,22 @@
     </row>
     <row r="175" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A175" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B175" s="84" t="s">
         <v>21</v>
       </c>
       <c r="C175" s="44" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D175" s="44" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="E175" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F175" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G175" s="84" t="s">
         <v>51</v>
@@ -14125,7 +14135,7 @@
         <v>67</v>
       </c>
       <c r="I175" s="84" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="J175" s="44" t="s">
         <v>47</v>
@@ -14146,22 +14156,22 @@
     </row>
     <row r="176" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A176" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B176" s="84" t="s">
         <v>15</v>
       </c>
       <c r="C176" s="44" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="D176" s="44" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E176" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F176" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G176" s="84" t="s">
         <v>50</v>
@@ -14170,10 +14180,10 @@
         <v>67</v>
       </c>
       <c r="I176" s="84" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="J176" s="44" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K176" s="50">
         <v>18</v>
@@ -14191,7 +14201,7 @@
     </row>
     <row r="177" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A177" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B177" s="84" t="s">
         <v>11</v>
@@ -14215,10 +14225,10 @@
         <v>67</v>
       </c>
       <c r="I177" s="84" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="J177" s="44" t="s">
-        <v>1220</v>
+        <v>1210</v>
       </c>
       <c r="K177" s="50">
         <v>30</v>
@@ -14236,7 +14246,7 @@
     </row>
     <row r="178" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A178" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B178" s="84" t="s">
         <v>11</v>
@@ -14260,10 +14270,10 @@
         <v>67</v>
       </c>
       <c r="I178" s="84" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="J178" s="44" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="K178" s="50">
         <v>33</v>
@@ -14281,7 +14291,7 @@
     </row>
     <row r="179" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A179" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B179" s="84" t="s">
         <v>11</v>
@@ -14305,7 +14315,7 @@
         <v>67</v>
       </c>
       <c r="I179" s="84" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="J179" s="44" t="s">
         <v>61</v>
@@ -14326,7 +14336,7 @@
     </row>
     <row r="180" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A180" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B180" s="84" t="s">
         <v>11</v>
@@ -14350,7 +14360,7 @@
         <v>67</v>
       </c>
       <c r="I180" s="84" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="J180" s="44" t="s">
         <v>339</v>
@@ -14371,7 +14381,7 @@
     </row>
     <row r="181" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A181" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B181" s="84" t="s">
         <v>23</v>
@@ -14395,10 +14405,10 @@
         <v>67</v>
       </c>
       <c r="I181" s="84" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="J181" s="44" t="s">
-        <v>995</v>
+        <v>985</v>
       </c>
       <c r="K181" s="50">
         <v>48</v>
@@ -14416,7 +14426,7 @@
     </row>
     <row r="182" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A182" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B182" s="84" t="s">
         <v>10</v>
@@ -14425,7 +14435,7 @@
         <v>342</v>
       </c>
       <c r="D182" s="44" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="E182" s="84" t="s">
         <v>0</v>
@@ -14440,10 +14450,10 @@
         <v>67</v>
       </c>
       <c r="I182" s="84" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="J182" s="44" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="K182" s="50">
         <v>45</v>
@@ -14461,7 +14471,7 @@
     </row>
     <row r="183" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A183" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B183" s="84" t="s">
         <v>21</v>
@@ -14485,10 +14495,10 @@
         <v>67</v>
       </c>
       <c r="I183" s="84" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="J183" s="44" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
       <c r="K183" s="50">
         <v>36</v>
@@ -14506,22 +14516,22 @@
     </row>
     <row r="184" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A184" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B184" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C184" s="44" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D184" s="44" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E184" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F184" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G184" s="84" t="s">
         <v>50</v>
@@ -14530,10 +14540,10 @@
         <v>67</v>
       </c>
       <c r="I184" s="84" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="J184" s="44" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K184" s="50">
         <v>24</v>
@@ -14551,7 +14561,7 @@
     </row>
     <row r="185" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A185" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B185" s="84" t="s">
         <v>6</v>
@@ -14575,10 +14585,10 @@
         <v>67</v>
       </c>
       <c r="I185" s="84" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J185" s="44" t="s">
-        <v>999</v>
+        <v>989</v>
       </c>
       <c r="K185" s="50">
         <v>24</v>
@@ -14596,16 +14606,16 @@
     </row>
     <row r="186" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A186" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B186" s="84" t="s">
         <v>6</v>
       </c>
       <c r="C186" s="44" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D186" s="44" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="E186" s="84" t="s">
         <v>0</v>
@@ -14620,10 +14630,10 @@
         <v>67</v>
       </c>
       <c r="I186" s="84" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="J186" s="44" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="K186" s="50">
         <v>18</v>
@@ -14641,7 +14651,7 @@
     </row>
     <row r="187" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A187" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B187" s="84" t="s">
         <v>13</v>
@@ -14665,10 +14675,10 @@
         <v>67</v>
       </c>
       <c r="I187" s="84" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="J187" s="44" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="K187" s="50">
         <v>33</v>
@@ -14686,7 +14696,7 @@
     </row>
     <row r="188" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B188" s="84" t="s">
         <v>16</v>
@@ -14695,7 +14705,7 @@
         <v>349</v>
       </c>
       <c r="D188" s="44" t="s">
-        <v>1166</v>
+        <v>1156</v>
       </c>
       <c r="E188" s="84" t="s">
         <v>0</v>
@@ -14710,10 +14720,10 @@
         <v>67</v>
       </c>
       <c r="I188" s="84" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="J188" s="44" t="s">
-        <v>1167</v>
+        <v>1157</v>
       </c>
       <c r="K188" s="50">
         <v>23</v>
@@ -14731,7 +14741,7 @@
     </row>
     <row r="189" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B189" s="84" t="s">
         <v>12</v>
@@ -14740,7 +14750,7 @@
         <v>350</v>
       </c>
       <c r="D189" s="44" t="s">
-        <v>1168</v>
+        <v>1158</v>
       </c>
       <c r="E189" s="84" t="s">
         <v>0</v>
@@ -14755,7 +14765,7 @@
         <v>67</v>
       </c>
       <c r="I189" s="84" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="J189" s="44" t="s">
         <v>59</v>
@@ -14776,7 +14786,7 @@
     </row>
     <row r="190" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B190" s="84" t="s">
         <v>14</v>
@@ -14800,10 +14810,10 @@
         <v>67</v>
       </c>
       <c r="I190" s="84" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="J190" s="44" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="K190" s="50">
         <v>27</v>
@@ -14821,7 +14831,7 @@
     </row>
     <row r="191" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B191" s="84" t="s">
         <v>10</v>
@@ -14845,10 +14855,10 @@
         <v>67</v>
       </c>
       <c r="I191" s="84" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="J191" s="44" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="K191" s="50">
         <v>36</v>
@@ -14866,7 +14876,7 @@
     </row>
     <row r="192" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B192" s="84" t="s">
         <v>13</v>
@@ -14890,7 +14900,7 @@
         <v>67</v>
       </c>
       <c r="I192" s="84" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="J192" s="44" t="s">
         <v>60</v>
@@ -14911,7 +14921,7 @@
     </row>
     <row r="193" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B193" s="84" t="s">
         <v>16</v>
@@ -14935,10 +14945,10 @@
         <v>67</v>
       </c>
       <c r="I193" s="84" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="J193" s="44" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
       <c r="K193" s="50">
         <v>21</v>
@@ -14956,7 +14966,7 @@
     </row>
     <row r="194" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B194" s="84" t="s">
         <v>13</v>
@@ -14980,10 +14990,10 @@
         <v>67</v>
       </c>
       <c r="I194" s="84" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="J194" s="44" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="K194" s="50">
         <v>36</v>
@@ -15001,7 +15011,7 @@
     </row>
     <row r="195" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B195" s="84" t="s">
         <v>17</v>
@@ -15025,10 +15035,10 @@
         <v>67</v>
       </c>
       <c r="I195" s="84" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="J195" s="44" t="s">
-        <v>1003</v>
+        <v>993</v>
       </c>
       <c r="K195" s="50">
         <v>33</v>
@@ -15046,7 +15056,7 @@
     </row>
     <row r="196" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B196" s="84" t="s">
         <v>14</v>
@@ -15070,7 +15080,7 @@
         <v>67</v>
       </c>
       <c r="I196" s="84" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="J196" s="44" t="s">
         <v>365</v>
@@ -15091,7 +15101,7 @@
     </row>
     <row r="197" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B197" s="84" t="s">
         <v>8</v>
@@ -15115,10 +15125,10 @@
         <v>67</v>
       </c>
       <c r="I197" s="84" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="J197" s="44" t="s">
-        <v>1169</v>
+        <v>1159</v>
       </c>
       <c r="K197" s="50">
         <v>42</v>
@@ -15136,22 +15146,22 @@
     </row>
     <row r="198" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B198" s="84" t="s">
         <v>12</v>
       </c>
       <c r="C198" s="44" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D198" s="44" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E198" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F198" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G198" s="84" t="s">
         <v>50</v>
@@ -15160,10 +15170,10 @@
         <v>67</v>
       </c>
       <c r="I198" s="84" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="J198" s="44" t="s">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="K198" s="50">
         <v>32</v>
@@ -15181,7 +15191,7 @@
     </row>
     <row r="199" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B199" s="84" t="s">
         <v>12</v>
@@ -15205,10 +15215,10 @@
         <v>67</v>
       </c>
       <c r="I199" s="84" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="J199" s="44" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
       <c r="K199" s="50">
         <v>36</v>
@@ -15226,7 +15236,7 @@
     </row>
     <row r="200" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B200" s="84" t="s">
         <v>17</v>
@@ -15250,10 +15260,10 @@
         <v>67</v>
       </c>
       <c r="I200" s="84" t="s">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="J200" s="44" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="K200" s="50">
         <v>43</v>
@@ -15271,7 +15281,7 @@
     </row>
     <row r="201" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B201" s="84" t="s">
         <v>8</v>
@@ -15295,10 +15305,10 @@
         <v>67</v>
       </c>
       <c r="I201" s="84" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="J201" s="44" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="K201" s="50">
         <v>39</v>
@@ -15316,22 +15326,22 @@
     </row>
     <row r="202" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B202" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C202" s="44" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D202" s="44" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E202" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F202" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G202" s="84" t="s">
         <v>50</v>
@@ -15340,10 +15350,10 @@
         <v>67</v>
       </c>
       <c r="I202" s="84" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="J202" s="44" t="s">
-        <v>1202</v>
+        <v>1192</v>
       </c>
       <c r="K202" s="50">
         <v>39</v>
@@ -15361,7 +15371,7 @@
     </row>
     <row r="203" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B203" s="84" t="s">
         <v>19</v>
@@ -15370,7 +15380,7 @@
         <v>374</v>
       </c>
       <c r="D203" s="44" t="s">
-        <v>1308</v>
+        <v>1298</v>
       </c>
       <c r="E203" s="84" t="s">
         <v>0</v>
@@ -15385,7 +15395,7 @@
         <v>67</v>
       </c>
       <c r="I203" s="84" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="J203" s="44" t="s">
         <v>375</v>
@@ -15406,22 +15416,22 @@
     </row>
     <row r="204" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B204" s="84" t="s">
         <v>6</v>
       </c>
       <c r="C204" s="44" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="D204" s="44" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E204" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F204" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G204" s="84" t="s">
         <v>50</v>
@@ -15430,10 +15440,10 @@
         <v>67</v>
       </c>
       <c r="I204" s="84" t="s">
-        <v>1071</v>
+        <v>1061</v>
       </c>
       <c r="J204" s="44" t="s">
-        <v>1072</v>
+        <v>1062</v>
       </c>
       <c r="K204" s="50">
         <v>29</v>
@@ -15451,22 +15461,22 @@
     </row>
     <row r="205" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B205" s="84" t="s">
         <v>24</v>
       </c>
       <c r="C205" s="44" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D205" s="44" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="E205" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F205" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G205" s="84" t="s">
         <v>50</v>
@@ -15475,10 +15485,10 @@
         <v>67</v>
       </c>
       <c r="I205" s="84" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="J205" s="44" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="K205" s="50">
         <v>34</v>
@@ -15496,34 +15506,34 @@
     </row>
     <row r="206" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B206" s="84" t="s">
         <v>16</v>
       </c>
       <c r="C206" s="44" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D206" s="44" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E206" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F206" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G206" s="84" t="s">
         <v>50</v>
       </c>
       <c r="H206" s="84" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="I206" s="84" t="s">
-        <v>1073</v>
+        <v>1063</v>
       </c>
       <c r="J206" s="44" t="s">
-        <v>1203</v>
+        <v>1193</v>
       </c>
       <c r="K206" s="50">
         <v>15</v>
@@ -15541,7 +15551,7 @@
     </row>
     <row r="207" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B207" s="84" t="s">
         <v>6</v>
@@ -15565,10 +15575,10 @@
         <v>67</v>
       </c>
       <c r="I207" s="84" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="J207" s="44" t="s">
-        <v>1008</v>
+        <v>998</v>
       </c>
       <c r="K207" s="50">
         <v>27</v>
@@ -15586,7 +15596,7 @@
     </row>
     <row r="208" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B208" s="84" t="s">
         <v>6</v>
@@ -15610,10 +15620,10 @@
         <v>67</v>
       </c>
       <c r="I208" s="84" t="s">
-        <v>1009</v>
+        <v>999</v>
       </c>
       <c r="J208" s="44" t="s">
-        <v>1170</v>
+        <v>1160</v>
       </c>
       <c r="K208" s="50">
         <v>15</v>
@@ -15631,7 +15641,7 @@
     </row>
     <row r="209" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B209" s="84" t="s">
         <v>9</v>
@@ -15655,10 +15665,10 @@
         <v>67</v>
       </c>
       <c r="I209" s="84" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="J209" s="44" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="K209" s="50">
         <v>27</v>
@@ -15676,22 +15686,22 @@
     </row>
     <row r="210" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A210" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B210" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C210" s="44" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D210" s="44" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="E210" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F210" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G210" s="84" t="s">
         <v>50</v>
@@ -15700,10 +15710,10 @@
         <v>67</v>
       </c>
       <c r="I210" s="84" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="J210" s="44" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="K210" s="50">
         <v>30</v>
@@ -15721,22 +15731,22 @@
     </row>
     <row r="211" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A211" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B211" s="84" t="s">
         <v>6</v>
       </c>
       <c r="C211" s="44" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D211" s="44" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E211" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F211" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G211" s="84" t="s">
         <v>51</v>
@@ -15745,10 +15755,10 @@
         <v>67</v>
       </c>
       <c r="I211" s="84" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="J211" s="44" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="K211" s="50">
         <v>30</v>
@@ -15766,22 +15776,22 @@
     </row>
     <row r="212" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A212" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B212" s="84" t="s">
         <v>10</v>
       </c>
       <c r="C212" s="44" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D212" s="44" t="s">
-        <v>1204</v>
+        <v>1194</v>
       </c>
       <c r="E212" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F212" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G212" s="84" t="s">
         <v>50</v>
@@ -15790,10 +15800,10 @@
         <v>67</v>
       </c>
       <c r="I212" s="84" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="J212" s="44" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
       <c r="K212" s="50">
         <v>18</v>
@@ -15811,7 +15821,7 @@
     </row>
     <row r="213" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B213" s="84" t="s">
         <v>14</v>
@@ -15835,10 +15845,10 @@
         <v>67</v>
       </c>
       <c r="I213" s="84" t="s">
-        <v>1010</v>
+        <v>1000</v>
       </c>
       <c r="J213" s="44" t="s">
-        <v>1011</v>
+        <v>1001</v>
       </c>
       <c r="K213" s="50">
         <v>30</v>
@@ -15856,7 +15866,7 @@
     </row>
     <row r="214" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B214" s="84" t="s">
         <v>18</v>
@@ -15880,10 +15890,10 @@
         <v>67</v>
       </c>
       <c r="I214" s="84" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="J214" s="44" t="s">
-        <v>1171</v>
+        <v>1161</v>
       </c>
       <c r="K214" s="50">
         <v>30</v>
@@ -15901,22 +15911,22 @@
     </row>
     <row r="215" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B215" s="84" t="s">
         <v>12</v>
       </c>
       <c r="C215" s="44" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D215" s="44" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
       <c r="E215" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F215" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G215" s="84" t="s">
         <v>50</v>
@@ -15925,10 +15935,10 @@
         <v>67</v>
       </c>
       <c r="I215" s="84" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="J215" s="44" t="s">
-        <v>1213</v>
+        <v>1203</v>
       </c>
       <c r="K215" s="50">
         <v>30</v>
@@ -15946,22 +15956,22 @@
     </row>
     <row r="216" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B216" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C216" s="44" t="s">
-        <v>1077</v>
+        <v>1067</v>
       </c>
       <c r="D216" s="44" t="s">
-        <v>1309</v>
+        <v>1299</v>
       </c>
       <c r="E216" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F216" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G216" s="84" t="s">
         <v>50</v>
@@ -15970,10 +15980,10 @@
         <v>67</v>
       </c>
       <c r="I216" s="84" t="s">
-        <v>1078</v>
+        <v>1068</v>
       </c>
       <c r="J216" s="44" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="K216" s="50">
         <v>28</v>
@@ -15991,22 +16001,22 @@
     </row>
     <row r="217" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B217" s="84" t="s">
         <v>14</v>
       </c>
       <c r="C217" s="44" t="s">
-        <v>633</v>
+        <v>1313</v>
       </c>
       <c r="D217" s="44" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="E217" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F217" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G217" s="84" t="s">
         <v>50</v>
@@ -16015,10 +16025,10 @@
         <v>67</v>
       </c>
       <c r="I217" s="84" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
       <c r="J217" s="44" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="K217" s="50">
         <v>15</v>
@@ -16036,7 +16046,7 @@
     </row>
     <row r="218" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B218" s="84" t="s">
         <v>18</v>
@@ -16045,7 +16055,7 @@
         <v>386</v>
       </c>
       <c r="D218" s="44" t="s">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="E218" s="84" t="s">
         <v>0</v>
@@ -16060,10 +16070,10 @@
         <v>67</v>
       </c>
       <c r="I218" s="84" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="J218" s="44" t="s">
-        <v>1172</v>
+        <v>1162</v>
       </c>
       <c r="K218" s="50">
         <v>34</v>
@@ -16081,7 +16091,7 @@
     </row>
     <row r="219" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B219" s="84" t="s">
         <v>22</v>
@@ -16105,10 +16115,10 @@
         <v>67</v>
       </c>
       <c r="I219" s="84" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="J219" s="44" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="K219" s="50">
         <v>32</v>
@@ -16126,22 +16136,22 @@
     </row>
     <row r="220" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B220" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C220" s="44" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="D220" s="44" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="E220" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F220" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G220" s="84" t="s">
         <v>51</v>
@@ -16150,10 +16160,10 @@
         <v>67</v>
       </c>
       <c r="I220" s="84" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="J220" s="44" t="s">
-        <v>1080</v>
+        <v>1070</v>
       </c>
       <c r="K220" s="50">
         <v>27</v>
@@ -16171,7 +16181,7 @@
     </row>
     <row r="221" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B221" s="84" t="s">
         <v>22</v>
@@ -16195,10 +16205,10 @@
         <v>67</v>
       </c>
       <c r="I221" s="84" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="J221" s="44" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="K221" s="50">
         <v>39</v>
@@ -16216,22 +16226,22 @@
     </row>
     <row r="222" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B222" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C222" s="44" t="s">
-        <v>1205</v>
+        <v>1195</v>
       </c>
       <c r="D222" s="44" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="E222" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F222" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G222" s="84" t="s">
         <v>51</v>
@@ -16240,10 +16250,10 @@
         <v>67</v>
       </c>
       <c r="I222" s="84" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="J222" s="44" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="K222" s="50">
         <v>15</v>
@@ -16261,7 +16271,7 @@
     </row>
     <row r="223" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B223" s="84" t="s">
         <v>4</v>
@@ -16285,10 +16295,10 @@
         <v>67</v>
       </c>
       <c r="I223" s="84" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="J223" s="44" t="s">
-        <v>1015</v>
+        <v>1005</v>
       </c>
       <c r="K223" s="50">
         <v>27</v>
@@ -16306,7 +16316,7 @@
     </row>
     <row r="224" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B224" s="84" t="s">
         <v>7</v>
@@ -16330,10 +16340,10 @@
         <v>67</v>
       </c>
       <c r="I224" s="84" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="J224" s="44" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="K224" s="50">
         <v>36</v>
@@ -16351,7 +16361,7 @@
     </row>
     <row r="225" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B225" s="84" t="s">
         <v>12</v>
@@ -16375,10 +16385,10 @@
         <v>67</v>
       </c>
       <c r="I225" s="84" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="J225" s="44" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="K225" s="50">
         <v>24</v>
@@ -16396,7 +16406,7 @@
     </row>
     <row r="226" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B226" s="84" t="s">
         <v>6</v>
@@ -16420,10 +16430,10 @@
         <v>67</v>
       </c>
       <c r="I226" s="84" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="J226" s="44" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="K226" s="50">
         <v>27</v>
@@ -16440,7 +16450,7 @@
     </row>
     <row r="227" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B227" s="84" t="s">
         <v>1</v>
@@ -16464,10 +16474,10 @@
         <v>67</v>
       </c>
       <c r="I227" s="84" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="J227" s="44" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="K227" s="50">
         <v>30</v>
@@ -16484,7 +16494,7 @@
     </row>
     <row r="228" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B228" s="84" t="s">
         <v>16</v>
@@ -16508,10 +16518,10 @@
         <v>67</v>
       </c>
       <c r="I228" s="84" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="J228" s="44" t="s">
-        <v>1016</v>
+        <v>1006</v>
       </c>
       <c r="K228" s="50">
         <v>27</v>
@@ -16528,22 +16538,22 @@
     </row>
     <row r="229" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B229" s="84" t="s">
         <v>2</v>
       </c>
       <c r="C229" s="44" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D229" s="44" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="E229" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F229" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G229" s="84" t="s">
         <v>51</v>
@@ -16552,10 +16562,10 @@
         <v>67</v>
       </c>
       <c r="I229" s="84" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="J229" s="44" t="s">
-        <v>1081</v>
+        <v>1071</v>
       </c>
       <c r="K229" s="50">
         <v>24</v>
@@ -16572,22 +16582,22 @@
     </row>
     <row r="230" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B230" s="84" t="s">
         <v>18</v>
       </c>
       <c r="C230" s="44" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="D230" s="44" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="E230" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F230" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G230" s="84" t="s">
         <v>51</v>
@@ -16596,10 +16606,10 @@
         <v>67</v>
       </c>
       <c r="I230" s="84" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="J230" s="44" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="K230" s="50">
         <v>24</v>
@@ -16617,22 +16627,22 @@
     </row>
     <row r="231" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A231" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B231" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C231" s="44" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="D231" s="44" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="E231" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F231" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G231" s="84" t="s">
         <v>50</v>
@@ -16641,10 +16651,10 @@
         <v>67</v>
       </c>
       <c r="I231" s="84" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="J231" s="44" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="K231" s="50">
         <v>25</v>
@@ -16661,7 +16671,7 @@
     </row>
     <row r="232" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A232" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B232" s="84" t="s">
         <v>8</v>
@@ -16685,7 +16695,7 @@
         <v>67</v>
       </c>
       <c r="I232" s="84" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="J232" s="44" t="s">
         <v>405</v>
@@ -16705,7 +16715,7 @@
     </row>
     <row r="233" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B233" s="84" t="s">
         <v>8</v>
@@ -16729,10 +16739,10 @@
         <v>67</v>
       </c>
       <c r="I233" s="84" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="J233" s="44" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="K233" s="50">
         <v>36</v>
@@ -16750,7 +16760,7 @@
     </row>
     <row r="234" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B234" s="84" t="s">
         <v>26</v>
@@ -16774,10 +16784,10 @@
         <v>67</v>
       </c>
       <c r="I234" s="84" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="J234" s="44" t="s">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="K234" s="50">
         <v>30</v>
@@ -16794,22 +16804,22 @@
     </row>
     <row r="235" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A235" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B235" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C235" s="44" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="D235" s="44" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="E235" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F235" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G235" s="84" t="s">
         <v>51</v>
@@ -16818,10 +16828,10 @@
         <v>67</v>
       </c>
       <c r="I235" s="84" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="J235" s="44" t="s">
-        <v>1084</v>
+        <v>1074</v>
       </c>
       <c r="K235" s="50">
         <v>21</v>
@@ -16838,7 +16848,7 @@
     </row>
     <row r="236" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A236" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B236" s="84" t="s">
         <v>26</v>
@@ -16862,7 +16872,7 @@
         <v>67</v>
       </c>
       <c r="I236" s="84" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="J236" s="44" t="s">
         <v>412</v>
@@ -16882,16 +16892,16 @@
     </row>
     <row r="237" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A237" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B237" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C237" s="44" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="D237" s="44" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="E237" s="84" t="s">
         <v>0</v>
@@ -16906,10 +16916,10 @@
         <v>67</v>
       </c>
       <c r="I237" s="84" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="J237" s="44" t="s">
-        <v>1085</v>
+        <v>1075</v>
       </c>
       <c r="K237" s="50">
         <v>30</v>
@@ -16926,7 +16936,7 @@
     </row>
     <row r="238" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B238" s="84" t="s">
         <v>9</v>
@@ -16950,10 +16960,10 @@
         <v>67</v>
       </c>
       <c r="I238" s="84" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="J238" s="44" t="s">
-        <v>1212</v>
+        <v>1202</v>
       </c>
       <c r="K238" s="50">
         <v>43</v>
@@ -16970,7 +16980,7 @@
     </row>
     <row r="239" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A239" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B239" s="84" t="s">
         <v>24</v>
@@ -16994,10 +17004,10 @@
         <v>67</v>
       </c>
       <c r="I239" s="84" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="J239" s="44" t="s">
-        <v>1018</v>
+        <v>1008</v>
       </c>
       <c r="K239" s="50">
         <v>24</v>
@@ -17014,7 +17024,7 @@
     </row>
     <row r="240" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A240" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B240" s="84" t="s">
         <v>22</v>
@@ -17038,7 +17048,7 @@
         <v>67</v>
       </c>
       <c r="I240" s="84" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="J240" s="44" t="s">
         <v>53</v>
@@ -17058,7 +17068,7 @@
     </row>
     <row r="241" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A241" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B241" s="84" t="s">
         <v>7</v>
@@ -17082,10 +17092,10 @@
         <v>67</v>
       </c>
       <c r="I241" s="84" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="J241" s="44" t="s">
-        <v>1019</v>
+        <v>1009</v>
       </c>
       <c r="K241" s="50">
         <v>27</v>
@@ -17102,7 +17112,7 @@
     </row>
     <row r="242" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B242" s="84" t="s">
         <v>16</v>
@@ -17126,10 +17136,10 @@
         <v>67</v>
       </c>
       <c r="I242" s="84" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="J242" s="44" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="K242" s="50">
         <v>16</v>
@@ -17146,7 +17156,7 @@
     </row>
     <row r="243" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A243" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B243" s="84" t="s">
         <v>2</v>
@@ -17170,10 +17180,10 @@
         <v>67</v>
       </c>
       <c r="I243" s="84" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="J243" s="44" t="s">
-        <v>1101</v>
+        <v>1091</v>
       </c>
       <c r="K243" s="50">
         <v>33</v>
@@ -17190,22 +17200,22 @@
     </row>
     <row r="244" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A244" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B244" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C244" s="44" t="s">
-        <v>648</v>
+        <v>1311</v>
       </c>
       <c r="D244" s="44" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E244" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F244" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G244" s="84" t="s">
         <v>51</v>
@@ -17214,10 +17224,10 @@
         <v>67</v>
       </c>
       <c r="I244" s="84" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="J244" s="44" t="s">
-        <v>1206</v>
+        <v>1196</v>
       </c>
       <c r="K244" s="50">
         <v>26</v>
@@ -17234,22 +17244,22 @@
     </row>
     <row r="245" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A245" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B245" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C245" s="44" t="s">
-        <v>1207</v>
+        <v>1197</v>
       </c>
       <c r="D245" s="44" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E245" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F245" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G245" s="84" t="s">
         <v>50</v>
@@ -17258,10 +17268,10 @@
         <v>67</v>
       </c>
       <c r="I245" s="84" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="J245" s="44" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="K245" s="50">
         <v>24</v>
@@ -17278,7 +17288,7 @@
     </row>
     <row r="246" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A246" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B246" s="84" t="s">
         <v>10</v>
@@ -17302,7 +17312,7 @@
         <v>67</v>
       </c>
       <c r="I246" s="84" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="J246" s="44" t="s">
         <v>427</v>
@@ -17322,7 +17332,7 @@
     </row>
     <row r="247" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A247" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B247" s="84" t="s">
         <v>10</v>
@@ -17331,7 +17341,7 @@
         <v>428</v>
       </c>
       <c r="D247" s="44" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="E247" s="84" t="s">
         <v>0</v>
@@ -17346,10 +17356,10 @@
         <v>67</v>
       </c>
       <c r="I247" s="84" t="s">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="J247" s="44" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="K247" s="50">
         <v>33</v>
@@ -17366,7 +17376,7 @@
     </row>
     <row r="248" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A248" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B248" s="84" t="s">
         <v>17</v>
@@ -17390,10 +17400,10 @@
         <v>67</v>
       </c>
       <c r="I248" s="84" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="J248" s="44" t="s">
-        <v>1021</v>
+        <v>1011</v>
       </c>
       <c r="K248" s="50">
         <v>30</v>
@@ -17410,22 +17420,22 @@
     </row>
     <row r="249" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A249" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B249" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C249" s="44" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D249" s="44" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E249" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F249" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G249" s="84" t="s">
         <v>51</v>
@@ -17434,10 +17444,10 @@
         <v>67</v>
       </c>
       <c r="I249" s="84" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="J249" s="44" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="K249" s="50">
         <v>23</v>
@@ -17455,7 +17465,7 @@
     </row>
     <row r="250" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A250" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B250" s="84" t="s">
         <v>9</v>
@@ -17479,10 +17489,10 @@
         <v>67</v>
       </c>
       <c r="I250" s="84" t="s">
-        <v>1022</v>
+        <v>1012</v>
       </c>
       <c r="J250" s="44" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="K250" s="50">
         <v>39</v>
@@ -17499,7 +17509,7 @@
     </row>
     <row r="251" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A251" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B251" s="84" t="s">
         <v>13</v>
@@ -17523,10 +17533,10 @@
         <v>67</v>
       </c>
       <c r="I251" s="84" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="J251" s="44" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="K251" s="50">
         <v>36</v>
@@ -17543,22 +17553,22 @@
     </row>
     <row r="252" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A252" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B252" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C252" s="44" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D252" s="44" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E252" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F252" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G252" s="84" t="s">
         <v>52</v>
@@ -17567,10 +17577,10 @@
         <v>67</v>
       </c>
       <c r="I252" s="84" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="J252" s="44" t="s">
-        <v>1086</v>
+        <v>1076</v>
       </c>
       <c r="K252" s="50">
         <v>19</v>
@@ -17587,7 +17597,7 @@
     </row>
     <row r="253" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A253" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B253" s="84" t="s">
         <v>6</v>
@@ -17611,10 +17621,10 @@
         <v>67</v>
       </c>
       <c r="I253" s="84" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="J253" s="44" t="s">
-        <v>1024</v>
+        <v>1014</v>
       </c>
       <c r="K253" s="50">
         <v>21</v>
@@ -17631,22 +17641,22 @@
     </row>
     <row r="254" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A254" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B254" s="84" t="s">
         <v>6</v>
       </c>
       <c r="C254" s="44" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="D254" s="44" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="E254" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F254" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G254" s="84" t="s">
         <v>50</v>
@@ -17655,10 +17665,10 @@
         <v>67</v>
       </c>
       <c r="I254" s="84" t="s">
-        <v>1023</v>
+        <v>1013</v>
       </c>
       <c r="J254" s="44" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="K254" s="50">
         <v>18</v>
@@ -17675,22 +17685,22 @@
     </row>
     <row r="255" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B255" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C255" s="44" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="D255" s="44" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="E255" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F255" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G255" s="84" t="s">
         <v>51</v>
@@ -17699,10 +17709,10 @@
         <v>67</v>
       </c>
       <c r="I255" s="84" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="J255" s="44" t="s">
-        <v>1087</v>
+        <v>1077</v>
       </c>
       <c r="K255" s="50">
         <v>27</v>
@@ -17719,7 +17729,7 @@
     </row>
     <row r="256" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B256" s="84" t="s">
         <v>17</v>
@@ -17743,10 +17753,10 @@
         <v>67</v>
       </c>
       <c r="I256" s="84" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="J256" s="44" t="s">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="K256" s="50">
         <v>39</v>
@@ -17763,7 +17773,7 @@
     </row>
     <row r="257" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A257" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B257" s="84" t="s">
         <v>11</v>
@@ -17787,10 +17797,10 @@
         <v>67</v>
       </c>
       <c r="I257" s="84" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="J257" s="44" t="s">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="K257" s="50">
         <v>36</v>
@@ -17807,7 +17817,7 @@
     </row>
     <row r="258" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A258" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B258" s="84" t="s">
         <v>13</v>
@@ -17831,7 +17841,7 @@
         <v>67</v>
       </c>
       <c r="I258" s="84" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="J258" s="44" t="s">
         <v>443</v>
@@ -17851,7 +17861,7 @@
     </row>
     <row r="259" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B259" s="84" t="s">
         <v>2</v>
@@ -17875,10 +17885,10 @@
         <v>67</v>
       </c>
       <c r="I259" s="84" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="J259" s="44" t="s">
-        <v>1215</v>
+        <v>1205</v>
       </c>
       <c r="K259" s="50">
         <v>36</v>
@@ -17895,22 +17905,22 @@
     </row>
     <row r="260" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A260" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B260" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C260" s="44" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="D260" s="44" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="E260" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F260" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G260" s="84" t="s">
         <v>51</v>
@@ -17919,10 +17929,10 @@
         <v>67</v>
       </c>
       <c r="I260" s="84" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="J260" s="44" t="s">
-        <v>1088</v>
+        <v>1078</v>
       </c>
       <c r="K260" s="50">
         <v>18</v>
@@ -17939,22 +17949,22 @@
     </row>
     <row r="261" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A261" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B261" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C261" s="44" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D261" s="44" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E261" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F261" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G261" s="84" t="s">
         <v>51</v>
@@ -17963,10 +17973,10 @@
         <v>67</v>
       </c>
       <c r="I261" s="84" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="J261" s="44" t="s">
-        <v>1089</v>
+        <v>1079</v>
       </c>
       <c r="K261" s="50">
         <v>24</v>
@@ -17983,7 +17993,7 @@
     </row>
     <row r="262" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A262" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B262" s="84" t="s">
         <v>22</v>
@@ -18007,7 +18017,7 @@
         <v>67</v>
       </c>
       <c r="I262" s="84" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="J262" s="44" t="s">
         <v>448</v>
@@ -18027,7 +18037,7 @@
     </row>
     <row r="263" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A263" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B263" s="84" t="s">
         <v>19</v>
@@ -18051,10 +18061,10 @@
         <v>67</v>
       </c>
       <c r="I263" s="84" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="J263" s="44" t="s">
-        <v>1173</v>
+        <v>1163</v>
       </c>
       <c r="K263" s="50">
         <v>24</v>
@@ -18071,7 +18081,7 @@
     </row>
     <row r="264" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B264" s="84" t="s">
         <v>16</v>
@@ -18095,10 +18105,10 @@
         <v>67</v>
       </c>
       <c r="I264" s="84" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="J264" s="44" t="s">
-        <v>1174</v>
+        <v>1164</v>
       </c>
       <c r="K264" s="50">
         <v>24</v>
@@ -18115,7 +18125,7 @@
     </row>
     <row r="265" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A265" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B265" s="84" t="s">
         <v>1</v>
@@ -18139,10 +18149,10 @@
         <v>67</v>
       </c>
       <c r="I265" s="84" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="J265" s="44" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="K265" s="50">
         <v>33</v>
@@ -18160,7 +18170,7 @@
     </row>
     <row r="266" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A266" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B266" s="84" t="s">
         <v>17</v>
@@ -18184,10 +18194,10 @@
         <v>67</v>
       </c>
       <c r="I266" s="84" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="J266" s="44" t="s">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="K266" s="50">
         <v>39</v>
@@ -18204,7 +18214,7 @@
     </row>
     <row r="267" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A267" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B267" s="84" t="s">
         <v>19</v>
@@ -18228,10 +18238,10 @@
         <v>67</v>
       </c>
       <c r="I267" s="84" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="J267" s="44" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="K267" s="50">
         <v>27</v>
@@ -18248,22 +18258,22 @@
     </row>
     <row r="268" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A268" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B268" s="84" t="s">
         <v>19</v>
       </c>
       <c r="C268" s="44" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D268" s="44" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E268" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F268" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G268" s="84" t="s">
         <v>50</v>
@@ -18272,10 +18282,10 @@
         <v>67</v>
       </c>
       <c r="I268" s="84" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="J268" s="44" t="s">
-        <v>1301</v>
+        <v>1291</v>
       </c>
       <c r="K268" s="50">
         <v>24</v>
@@ -18292,7 +18302,7 @@
     </row>
     <row r="269" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A269" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B269" s="84" t="s">
         <v>9</v>
@@ -18316,10 +18326,10 @@
         <v>67</v>
       </c>
       <c r="I269" s="84" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="J269" s="44" t="s">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="K269" s="50">
         <v>30</v>
@@ -18336,22 +18346,22 @@
     </row>
     <row r="270" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A270" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B270" s="84" t="s">
         <v>22</v>
       </c>
       <c r="C270" s="44" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D270" s="44" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="E270" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F270" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G270" s="84" t="s">
         <v>50</v>
@@ -18360,10 +18370,10 @@
         <v>67</v>
       </c>
       <c r="I270" s="84" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="J270" s="44" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="K270" s="50">
         <v>23</v>
@@ -18380,7 +18390,7 @@
     </row>
     <row r="271" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A271" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B271" s="84" t="s">
         <v>15</v>
@@ -18404,10 +18414,10 @@
         <v>67</v>
       </c>
       <c r="I271" s="84" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="J271" s="44" t="s">
-        <v>1175</v>
+        <v>1165</v>
       </c>
       <c r="K271" s="50">
         <v>36</v>
@@ -18424,22 +18434,22 @@
     </row>
     <row r="272" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A272" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B272" s="84" t="s">
         <v>26</v>
       </c>
       <c r="C272" s="44" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="D272" s="44" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="E272" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F272" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G272" s="84" t="s">
         <v>51</v>
@@ -18448,10 +18458,10 @@
         <v>67</v>
       </c>
       <c r="I272" s="84" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="J272" s="44" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="K272" s="50">
         <v>24</v>
@@ -18468,7 +18478,7 @@
     </row>
     <row r="273" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A273" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B273" s="84" t="s">
         <v>23</v>
@@ -18492,10 +18502,10 @@
         <v>67</v>
       </c>
       <c r="I273" s="84" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="J273" s="44" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="K273" s="50">
         <v>36</v>
@@ -18512,7 +18522,7 @@
     </row>
     <row r="274" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A274" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B274" s="84" t="s">
         <v>15</v>
@@ -18536,10 +18546,10 @@
         <v>67</v>
       </c>
       <c r="I274" s="84" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="J274" s="44" t="s">
-        <v>1176</v>
+        <v>1166</v>
       </c>
       <c r="K274" s="50">
         <v>18</v>
@@ -18556,22 +18566,22 @@
     </row>
     <row r="275" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A275" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B275" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C275" s="44" t="s">
-        <v>669</v>
+        <v>1312</v>
       </c>
       <c r="D275" s="44" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="E275" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F275" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G275" s="84" t="s">
         <v>50</v>
@@ -18580,10 +18590,10 @@
         <v>67</v>
       </c>
       <c r="I275" s="84" t="s">
-        <v>1090</v>
+        <v>1080</v>
       </c>
       <c r="J275" s="44" t="s">
-        <v>1091</v>
+        <v>1081</v>
       </c>
       <c r="K275" s="50">
         <v>30</v>
@@ -18600,7 +18610,7 @@
     </row>
     <row r="276" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A276" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B276" s="84" t="s">
         <v>23</v>
@@ -18609,7 +18619,7 @@
         <v>467</v>
       </c>
       <c r="D276" s="44" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="E276" s="84" t="s">
         <v>0</v>
@@ -18624,10 +18634,10 @@
         <v>67</v>
       </c>
       <c r="I276" s="84" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="J276" s="44" t="s">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="K276" s="50">
         <v>24</v>
@@ -18644,22 +18654,22 @@
     </row>
     <row r="277" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A277" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B277" s="84" t="s">
         <v>13</v>
       </c>
       <c r="C277" s="44" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="D277" s="44" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="E277" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F277" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G277" s="84" t="s">
         <v>51</v>
@@ -18668,10 +18678,10 @@
         <v>67</v>
       </c>
       <c r="I277" s="84" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="J277" s="44" t="s">
-        <v>1092</v>
+        <v>1082</v>
       </c>
       <c r="K277" s="50">
         <v>43</v>
@@ -18688,7 +18698,7 @@
     </row>
     <row r="278" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A278" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B278" s="84" t="s">
         <v>13</v>
@@ -18712,10 +18722,10 @@
         <v>67</v>
       </c>
       <c r="I278" s="84" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="J278" s="44" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="K278" s="50">
         <v>39</v>
@@ -18732,7 +18742,7 @@
     </row>
     <row r="279" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A279" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B279" s="84" t="s">
         <v>15</v>
@@ -18756,10 +18766,10 @@
         <v>67</v>
       </c>
       <c r="I279" s="84" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="J279" s="44" t="s">
-        <v>1031</v>
+        <v>1021</v>
       </c>
       <c r="K279" s="50">
         <v>20</v>
@@ -18776,7 +18786,7 @@
     </row>
     <row r="280" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A280" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B280" s="84" t="s">
         <v>20</v>
@@ -18800,10 +18810,10 @@
         <v>67</v>
       </c>
       <c r="I280" s="84" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="J280" s="44" t="s">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="K280" s="50">
         <v>34</v>
@@ -18820,7 +18830,7 @@
     </row>
     <row r="281" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A281" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B281" s="84" t="s">
         <v>17</v>
@@ -18844,10 +18854,10 @@
         <v>67</v>
       </c>
       <c r="I281" s="84" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="J281" s="44" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="K281" s="50">
         <v>36</v>
@@ -18864,7 +18874,7 @@
     </row>
     <row r="282" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A282" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B282" s="84" t="s">
         <v>13</v>
@@ -18888,10 +18898,10 @@
         <v>67</v>
       </c>
       <c r="I282" s="84" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="J282" s="44" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="K282" s="50">
         <v>36</v>
@@ -18908,7 +18918,7 @@
     </row>
     <row r="283" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A283" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B283" s="84" t="s">
         <v>18</v>
@@ -18932,10 +18942,10 @@
         <v>67</v>
       </c>
       <c r="I283" s="84" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="J283" s="44" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="K283" s="50">
         <v>36</v>
@@ -18952,22 +18962,22 @@
     </row>
     <row r="284" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A284" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B284" s="84" t="s">
         <v>25</v>
       </c>
       <c r="C284" s="44" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="D284" s="44" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E284" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F284" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G284" s="84" t="s">
         <v>51</v>
@@ -18976,10 +18986,10 @@
         <v>67</v>
       </c>
       <c r="I284" s="84" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="J284" s="44" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="K284" s="50">
         <v>19</v>
@@ -18996,7 +19006,7 @@
     </row>
     <row r="285" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A285" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B285" s="84" t="s">
         <v>9</v>
@@ -19005,7 +19015,7 @@
         <v>480</v>
       </c>
       <c r="D285" s="44" t="s">
-        <v>1177</v>
+        <v>1167</v>
       </c>
       <c r="E285" s="84" t="s">
         <v>0</v>
@@ -19020,10 +19030,10 @@
         <v>67</v>
       </c>
       <c r="I285" s="84" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="J285" s="44" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="K285" s="50">
         <v>36</v>
@@ -19040,7 +19050,7 @@
     </row>
     <row r="286" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A286" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B286" s="84" t="s">
         <v>9</v>
@@ -19064,10 +19074,10 @@
         <v>67</v>
       </c>
       <c r="I286" s="84" t="s">
-        <v>1034</v>
+        <v>1024</v>
       </c>
       <c r="J286" s="44" t="s">
-        <v>1035</v>
+        <v>1025</v>
       </c>
       <c r="K286" s="50">
         <v>36</v>
@@ -19084,7 +19094,7 @@
     </row>
     <row r="287" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A287" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B287" s="84" t="s">
         <v>14</v>
@@ -19108,10 +19118,10 @@
         <v>67</v>
       </c>
       <c r="I287" s="84" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="J287" s="44" t="s">
-        <v>1303</v>
+        <v>1293</v>
       </c>
       <c r="K287" s="50">
         <v>30</v>
@@ -19128,7 +19138,7 @@
     </row>
     <row r="288" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A288" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B288" s="84" t="s">
         <v>9</v>
@@ -19152,10 +19162,10 @@
         <v>67</v>
       </c>
       <c r="I288" s="84" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="J288" s="44" t="s">
-        <v>1036</v>
+        <v>1026</v>
       </c>
       <c r="K288" s="50">
         <v>36</v>
@@ -19172,7 +19182,7 @@
     </row>
     <row r="289" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A289" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B289" s="84" t="s">
         <v>23</v>
@@ -19181,7 +19191,7 @@
         <v>487</v>
       </c>
       <c r="D289" s="44" t="s">
-        <v>1037</v>
+        <v>1027</v>
       </c>
       <c r="E289" s="84" t="s">
         <v>0</v>
@@ -19196,10 +19206,10 @@
         <v>67</v>
       </c>
       <c r="I289" s="84" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="J289" s="44" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="K289" s="50">
         <v>23</v>
@@ -19216,7 +19226,7 @@
     </row>
     <row r="290" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A290" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B290" s="84" t="s">
         <v>10</v>
@@ -19240,10 +19250,10 @@
         <v>67</v>
       </c>
       <c r="I290" s="84" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="J290" s="44" t="s">
-        <v>1038</v>
+        <v>1028</v>
       </c>
       <c r="K290" s="50">
         <v>45</v>
@@ -19260,7 +19270,7 @@
     </row>
     <row r="291" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A291" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B291" s="84" t="s">
         <v>9</v>
@@ -19284,10 +19294,10 @@
         <v>67</v>
       </c>
       <c r="I291" s="84" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="J291" s="44" t="s">
-        <v>1178</v>
+        <v>1168</v>
       </c>
       <c r="K291" s="50">
         <v>33</v>
@@ -19304,7 +19314,7 @@
     </row>
     <row r="292" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A292" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B292" s="84" t="s">
         <v>2</v>
@@ -19328,10 +19338,10 @@
         <v>67</v>
       </c>
       <c r="I292" s="84" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="J292" s="44" t="s">
-        <v>1216</v>
+        <v>1206</v>
       </c>
       <c r="K292" s="50">
         <v>39</v>
@@ -19348,7 +19358,7 @@
     </row>
     <row r="293" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A293" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B293" s="84" t="s">
         <v>17</v>
@@ -19372,10 +19382,10 @@
         <v>67</v>
       </c>
       <c r="I293" s="84" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="J293" s="44" t="s">
-        <v>1179</v>
+        <v>1169</v>
       </c>
       <c r="K293" s="50">
         <v>45</v>
@@ -19392,7 +19402,7 @@
     </row>
     <row r="294" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A294" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B294" s="84" t="s">
         <v>17</v>
@@ -19416,10 +19426,10 @@
         <v>67</v>
       </c>
       <c r="I294" s="84" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="J294" s="44" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="K294" s="50">
         <v>39</v>
@@ -19437,7 +19447,7 @@
     </row>
     <row r="295" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A295" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B295" s="84" t="s">
         <v>22</v>
@@ -19461,7 +19471,7 @@
         <v>67</v>
       </c>
       <c r="I295" s="84" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="J295" s="44" t="s">
         <v>54</v>
@@ -19481,16 +19491,16 @@
     </row>
     <row r="296" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A296" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B296" s="84" t="s">
         <v>9</v>
       </c>
       <c r="C296" s="44" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="D296" s="44" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="E296" s="84" t="s">
         <v>0</v>
@@ -19505,10 +19515,10 @@
         <v>67</v>
       </c>
       <c r="I296" s="84" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="J296" s="44" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="K296" s="50">
         <v>36</v>
@@ -19525,7 +19535,7 @@
     </row>
     <row r="297" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A297" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B297" s="84" t="s">
         <v>22</v>
@@ -19549,10 +19559,10 @@
         <v>67</v>
       </c>
       <c r="I297" s="84" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="J297" s="44" t="s">
-        <v>1039</v>
+        <v>1029</v>
       </c>
       <c r="K297" s="50">
         <v>24</v>
@@ -19569,7 +19579,7 @@
     </row>
     <row r="298" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A298" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B298" s="84" t="s">
         <v>10</v>
@@ -19593,10 +19603,10 @@
         <v>67</v>
       </c>
       <c r="I298" s="84" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="J298" s="44" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="K298" s="50">
         <v>24</v>
@@ -19613,7 +19623,7 @@
     </row>
     <row r="299" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A299" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B299" s="84" t="s">
         <v>11</v>
@@ -19622,7 +19632,7 @@
         <v>504</v>
       </c>
       <c r="D299" s="44" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="E299" s="84" t="s">
         <v>0</v>
@@ -19637,10 +19647,10 @@
         <v>67</v>
       </c>
       <c r="I299" s="84" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="J299" s="44" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="K299" s="50">
         <v>13</v>
@@ -19657,7 +19667,7 @@
     </row>
     <row r="300" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B300" s="84" t="s">
         <v>17</v>
@@ -19681,10 +19691,10 @@
         <v>67</v>
       </c>
       <c r="I300" s="84" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="J300" s="44" t="s">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="K300" s="50">
         <v>18</v>
@@ -19701,7 +19711,7 @@
     </row>
     <row r="301" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A301" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B301" s="84" t="s">
         <v>11</v>
@@ -19725,7 +19735,7 @@
         <v>67</v>
       </c>
       <c r="I301" s="84" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="J301" s="44" t="s">
         <v>509</v>
@@ -19745,7 +19755,7 @@
     </row>
     <row r="302" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A302" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B302" s="84" t="s">
         <v>23</v>
@@ -19769,10 +19779,10 @@
         <v>67</v>
       </c>
       <c r="I302" s="84" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="J302" s="44" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
       <c r="K302" s="50">
         <v>26</v>
@@ -19789,7 +19799,7 @@
     </row>
     <row r="303" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A303" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B303" s="84" t="s">
         <v>1</v>
@@ -19813,10 +19823,10 @@
         <v>67</v>
       </c>
       <c r="I303" s="84" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="J303" s="44" t="s">
-        <v>1042</v>
+        <v>1032</v>
       </c>
       <c r="K303" s="50">
         <v>27</v>
@@ -19833,22 +19843,22 @@
     </row>
     <row r="304" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A304" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B304" s="84" t="s">
         <v>24</v>
       </c>
       <c r="C304" s="44" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="D304" s="44" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E304" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F304" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G304" s="84" t="s">
         <v>50</v>
@@ -19857,10 +19867,10 @@
         <v>67</v>
       </c>
       <c r="I304" s="84" t="s">
-        <v>1094</v>
+        <v>1084</v>
       </c>
       <c r="J304" s="44" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="K304" s="50">
         <v>15</v>
@@ -19877,22 +19887,22 @@
     </row>
     <row r="305" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A305" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B305" s="84" t="s">
         <v>15</v>
       </c>
       <c r="C305" s="44" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="D305" s="44" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E305" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F305" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G305" s="84" t="s">
         <v>52</v>
@@ -19901,10 +19911,10 @@
         <v>67</v>
       </c>
       <c r="I305" s="84" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="J305" s="44" t="s">
-        <v>1095</v>
+        <v>1085</v>
       </c>
       <c r="K305" s="50">
         <v>36</v>
@@ -19921,7 +19931,7 @@
     </row>
     <row r="306" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A306" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B306" s="84" t="s">
         <v>5</v>
@@ -19930,7 +19940,7 @@
         <v>514</v>
       </c>
       <c r="D306" s="44" t="s">
-        <v>1310</v>
+        <v>1300</v>
       </c>
       <c r="E306" s="84" t="s">
         <v>0</v>
@@ -19945,10 +19955,10 @@
         <v>67</v>
       </c>
       <c r="I306" s="84" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="J306" s="44" t="s">
-        <v>1304</v>
+        <v>1294</v>
       </c>
       <c r="K306" s="50">
         <v>35</v>
@@ -19966,7 +19976,7 @@
     </row>
     <row r="307" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A307" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B307" s="84" t="s">
         <v>12</v>
@@ -19990,10 +20000,10 @@
         <v>67</v>
       </c>
       <c r="I307" s="84" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="J307" s="44" t="s">
-        <v>1214</v>
+        <v>1204</v>
       </c>
       <c r="K307" s="50">
         <v>42</v>
@@ -20010,7 +20020,7 @@
     </row>
     <row r="308" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A308" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B308" s="84" t="s">
         <v>12</v>
@@ -20034,10 +20044,10 @@
         <v>67</v>
       </c>
       <c r="I308" s="84" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="J308" s="44" t="s">
-        <v>1043</v>
+        <v>1033</v>
       </c>
       <c r="K308" s="50">
         <v>30</v>
@@ -20054,22 +20064,22 @@
     </row>
     <row r="309" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A309" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B309" s="84" t="s">
         <v>25</v>
       </c>
       <c r="C309" s="44" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="D309" s="44" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="E309" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F309" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G309" s="84" t="s">
         <v>51</v>
@@ -20078,10 +20088,10 @@
         <v>67</v>
       </c>
       <c r="I309" s="84" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="J309" s="44" t="s">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="K309" s="50">
         <v>27</v>
@@ -20098,7 +20108,7 @@
     </row>
     <row r="310" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A310" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B310" s="84" t="s">
         <v>25</v>
@@ -20122,7 +20132,7 @@
         <v>67</v>
       </c>
       <c r="I310" s="84" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="J310" s="44" t="s">
         <v>521</v>
@@ -20142,7 +20152,7 @@
     </row>
     <row r="311" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A311" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B311" s="84" t="s">
         <v>9</v>
@@ -20166,10 +20176,10 @@
         <v>67</v>
       </c>
       <c r="I311" s="84" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="J311" s="44" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
       <c r="K311" s="50">
         <v>36</v>
@@ -20186,7 +20196,7 @@
     </row>
     <row r="312" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A312" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B312" s="84" t="s">
         <v>17</v>
@@ -20210,7 +20220,7 @@
         <v>67</v>
       </c>
       <c r="I312" s="84" t="s">
-        <v>1044</v>
+        <v>1034</v>
       </c>
       <c r="J312" s="44" t="s">
         <v>526</v>
@@ -20230,7 +20240,7 @@
     </row>
     <row r="313" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A313" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B313" s="84" t="s">
         <v>26</v>
@@ -20254,10 +20264,10 @@
         <v>67</v>
       </c>
       <c r="I313" s="84" t="s">
-        <v>1045</v>
+        <v>1035</v>
       </c>
       <c r="J313" s="44" t="s">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="K313" s="50">
         <v>30</v>
@@ -20274,7 +20284,7 @@
     </row>
     <row r="314" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A314" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B314" s="84" t="s">
         <v>1</v>
@@ -20298,10 +20308,10 @@
         <v>67</v>
       </c>
       <c r="I314" s="84" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="J314" s="44" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="K314" s="50">
         <v>19</v>
@@ -20318,7 +20328,7 @@
     </row>
     <row r="315" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B315" s="84" t="s">
         <v>24</v>
@@ -20342,10 +20352,10 @@
         <v>67</v>
       </c>
       <c r="I315" s="84" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="J315" s="44" t="s">
-        <v>1186</v>
+        <v>1176</v>
       </c>
       <c r="K315" s="50">
         <v>24</v>
@@ -20362,22 +20372,22 @@
     </row>
     <row r="316" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A316" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B316" s="84" t="s">
         <v>24</v>
       </c>
       <c r="C316" s="44" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="D316" s="44" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="E316" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F316" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G316" s="84" t="s">
         <v>51</v>
@@ -20386,7 +20396,7 @@
         <v>67</v>
       </c>
       <c r="I316" s="84" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="J316" s="44" t="s">
         <v>41</v>
@@ -20406,7 +20416,7 @@
     </row>
     <row r="317" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A317" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B317" s="84" t="s">
         <v>11</v>
@@ -20430,10 +20440,10 @@
         <v>67</v>
       </c>
       <c r="I317" s="84" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="J317" s="44" t="s">
-        <v>1047</v>
+        <v>1037</v>
       </c>
       <c r="K317" s="50">
         <v>30</v>
@@ -20450,22 +20460,22 @@
     </row>
     <row r="318" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A318" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B318" s="84" t="s">
         <v>11</v>
       </c>
       <c r="C318" s="44" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D318" s="44" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="E318" s="84" t="s">
         <v>0</v>
       </c>
       <c r="F318" s="54" t="s">
-        <v>1312</v>
+        <v>1302</v>
       </c>
       <c r="G318" s="84" t="s">
         <v>51</v>
@@ -20474,10 +20484,10 @@
         <v>67</v>
       </c>
       <c r="I318" s="84" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="J318" s="44" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="K318" s="50">
         <v>24</v>
@@ -20494,7 +20504,7 @@
     </row>
     <row r="319" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A319" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B319" s="84" t="s">
         <v>15</v>
@@ -20518,10 +20528,10 @@
         <v>67</v>
       </c>
       <c r="I319" s="84" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="J319" s="44" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="K319" s="50">
         <v>30</v>
@@ -20538,7 +20548,7 @@
     </row>
     <row r="320" spans="1:15" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A320" s="56" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B320" s="84" t="s">
         <v>25</v>
@@ -20562,10 +20572,10 @@
         <v>67</v>
       </c>
       <c r="I320" s="84" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="J320" s="44" t="s">
-        <v>1187</v>
+        <v>1177</v>
       </c>
       <c r="K320" s="50">
         <v>33</v>
@@ -20582,7 +20592,7 @@
     </row>
     <row r="321" spans="1:14" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A321" s="57" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="B321" s="85" t="s">
         <v>9</v>
@@ -20591,7 +20601,7 @@
         <v>539</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>1188</v>
+        <v>1178</v>
       </c>
       <c r="E321" s="85" t="s">
         <v>0</v>
@@ -20606,7 +20616,7 @@
         <v>67</v>
       </c>
       <c r="I321" s="85" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="J321" s="46" t="s">
         <v>62</v>
@@ -20626,7 +20636,7 @@
     </row>
     <row r="322" spans="1:14" s="9" customFormat="1" ht="15.6">
       <c r="A322" s="10" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B322" s="86"/>
       <c r="C322" s="10"/>
@@ -20639,7 +20649,7 @@
     </row>
     <row r="323" spans="1:14" s="9" customFormat="1" ht="15.6">
       <c r="A323" s="89" t="s">
-        <v>1097</v>
+        <v>1087</v>
       </c>
       <c r="B323" s="89"/>
       <c r="C323" s="89"/>
@@ -20710,42 +20720,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="2" customFormat="1" ht="30">
-      <c r="A1" s="103" t="s">
-        <v>1269</v>
-      </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
-      <c r="P1" s="103"/>
-      <c r="Q1" s="103"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="103"/>
-      <c r="T1" s="103"/>
-      <c r="U1" s="103"/>
-      <c r="V1" s="103"/>
-      <c r="W1" s="103"/>
-      <c r="X1" s="103"/>
-      <c r="Y1" s="103"/>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="103"/>
-      <c r="AB1" s="103"/>
-      <c r="AC1" s="103"/>
-      <c r="AD1" s="103"/>
-      <c r="AE1" s="103"/>
-      <c r="AF1" s="103"/>
-      <c r="AG1" s="103"/>
-      <c r="AH1" s="103"/>
+      <c r="A1" s="90" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
       <c r="AI1" s="31"/>
       <c r="AJ1" s="31"/>
       <c r="AK1" s="31"/>
@@ -20812,142 +20822,142 @@
       <c r="AV2" s="33"/>
     </row>
     <row r="3" spans="1:48">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="96" t="s">
+      <c r="E3" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="96" t="s">
-        <v>693</v>
-      </c>
-      <c r="I3" s="96" t="s">
+      <c r="H3" s="94" t="s">
+        <v>683</v>
+      </c>
+      <c r="I3" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="96" t="s">
+      <c r="J3" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100" t="s">
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="100"/>
-      <c r="Q3" s="100"/>
-      <c r="R3" s="100"/>
-      <c r="S3" s="100"/>
-      <c r="T3" s="100"/>
-      <c r="U3" s="100"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="101" t="s">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="102" t="s">
-        <v>687</v>
-      </c>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="107" t="s">
-        <v>1209</v>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="110"/>
+      <c r="AC3" s="111" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="97" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:48">
-      <c r="A4" s="105"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="110" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="110" t="s">
+      <c r="L4" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="110" t="s">
+      <c r="M4" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="110" t="s">
+      <c r="N4" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="106" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="93" t="s">
+      <c r="P4" s="106"/>
+      <c r="Q4" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="93"/>
-      <c r="S4" s="93" t="s">
+      <c r="R4" s="106"/>
+      <c r="S4" s="106" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="93"/>
-      <c r="U4" s="93" t="s">
+      <c r="T4" s="106"/>
+      <c r="U4" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="93"/>
-      <c r="W4" s="94" t="s">
+      <c r="V4" s="106"/>
+      <c r="W4" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="95" t="s">
+      <c r="X4" s="107"/>
+      <c r="Y4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="95"/>
-      <c r="AA4" s="95" t="s">
+      <c r="Z4" s="102"/>
+      <c r="AA4" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="95"/>
-      <c r="AC4" s="90" t="s">
+      <c r="AB4" s="102"/>
+      <c r="AC4" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="90" t="s">
+      <c r="AD4" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AE4" s="108"/>
+      <c r="AE4" s="98"/>
     </row>
     <row r="5" spans="1:48" ht="18" thickBot="1">
-      <c r="A5" s="106"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
       <c r="O5" s="65" t="s">
         <v>28</v>
       </c>
@@ -20990,9 +21000,9 @@
       <c r="AB5" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="AC5" s="91"/>
-      <c r="AD5" s="91"/>
-      <c r="AE5" s="109"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="99"/>
     </row>
     <row r="6" spans="1:48" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="72" t="s">
@@ -21002,10 +21012,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>1311</v>
+        <v>1301</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>0</v>
@@ -21017,13 +21027,13 @@
         <v>67</v>
       </c>
       <c r="H6" s="73" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>1208</v>
+        <v>1198</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="K6" s="75">
         <v>1</v>
@@ -21097,10 +21107,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="E7" s="67" t="s">
         <v>0</v>
@@ -21112,13 +21122,13 @@
         <v>67</v>
       </c>
       <c r="H7" s="67" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="J7" s="67" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="K7" s="70">
         <v>2</v>
@@ -21185,12 +21195,12 @@
       </c>
     </row>
     <row r="8" spans="1:48" ht="18" customHeight="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
       <c r="P8" s="40"/>
@@ -21211,6 +21221,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="W3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="A1:AH1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
@@ -21227,20 +21251,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="K3:N3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="W3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21270,7 +21280,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.8">
       <c r="A1" s="112" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -21305,7 +21315,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D3" s="116" t="s">
         <v>37</v>
@@ -21319,12 +21329,12 @@
       <c r="I3" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
       <c r="P3" s="126"/>
     </row>
     <row r="4" spans="1:16">
@@ -21335,10 +21345,10 @@
       <c r="E4" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="100" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="128" t="s">
@@ -21367,8 +21377,8 @@
       <c r="C5" s="121"/>
       <c r="D5" s="118"/>
       <c r="E5" s="127"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="128"/>
       <c r="I5" s="30" t="s">
         <v>28</v>
@@ -21403,7 +21413,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>3</v>
@@ -21493,7 +21503,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="25.8">
       <c r="A1" s="112" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="B1" s="112"/>
       <c r="C1" s="112"/>
@@ -21528,7 +21538,7 @@
         <v>38</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>1099</v>
+        <v>1089</v>
       </c>
       <c r="D3" s="116" t="s">
         <v>37</v>
@@ -21542,12 +21552,12 @@
       <c r="I3" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
       <c r="P3" s="126"/>
     </row>
     <row r="4" spans="1:16">
@@ -21558,10 +21568,10 @@
       <c r="E4" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="110" t="s">
+      <c r="G4" s="100" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="128" t="s">
@@ -21590,8 +21600,8 @@
       <c r="C5" s="121"/>
       <c r="D5" s="118"/>
       <c r="E5" s="127"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="110"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="128"/>
       <c r="I5" s="30" t="s">
         <v>28</v>
@@ -21626,7 +21636,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="D6" s="35" t="s">
         <v>3</v>
@@ -21678,7 +21688,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>3</v>
@@ -21730,7 +21740,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -21782,7 +21792,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -21834,7 +21844,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>3</v>
